--- a/sriramModel-nelson-atypical-patientID_12-sims-acth-5-iterations.xlsx
+++ b/sriramModel-nelson-atypical-patientID_12-sims-acth-5-iterations.xlsx
@@ -394,19 +394,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.23486184913876</v>
+        <v>16.11664081134181</v>
       </c>
       <c r="C2">
-        <v>16.03330568819345</v>
+        <v>16.18945677015887</v>
       </c>
       <c r="D2">
-        <v>16.02153677115216</v>
+        <v>16.174155071603</v>
       </c>
       <c r="E2">
-        <v>16.07341166486508</v>
+        <v>16.03638193677434</v>
       </c>
       <c r="F2">
-        <v>16.06279302757414</v>
+        <v>16.02672685646634</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -414,19 +414,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.36853184607016</v>
+        <v>16.1385999600446</v>
       </c>
       <c r="C3">
-        <v>15.97324550913084</v>
+        <v>16.28564830552667</v>
       </c>
       <c r="D3">
-        <v>15.95119515425712</v>
+        <v>16.25229739923136</v>
       </c>
       <c r="E3">
-        <v>16.05292226428194</v>
+        <v>15.9802643700851</v>
       </c>
       <c r="F3">
-        <v>16.0324256534318</v>
+        <v>15.96118652408856</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -434,19 +434,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.50103230935779</v>
+        <v>16.16584672350459</v>
       </c>
       <c r="C4">
-        <v>15.91976453838386</v>
+        <v>16.38845259758599</v>
       </c>
       <c r="D4">
-        <v>15.88889907722599</v>
+        <v>16.3343920365067</v>
       </c>
       <c r="E4">
-        <v>16.03849481101765</v>
+        <v>15.93162735332707</v>
       </c>
       <c r="F4">
-        <v>16.00882752138711</v>
+        <v>15.90336459527705</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -454,19 +454,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.63238516531739</v>
+        <v>16.19835211325367</v>
       </c>
       <c r="C5">
-        <v>15.87280956688453</v>
+        <v>16.49774683609109</v>
       </c>
       <c r="D5">
-        <v>15.83457777013609</v>
+        <v>16.42040453345584</v>
       </c>
       <c r="E5">
-        <v>16.03009300431363</v>
+        <v>15.89045161347392</v>
       </c>
       <c r="F5">
-        <v>15.99193420742976</v>
+        <v>15.85324679251898</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -474,19 +474,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.76261195340976</v>
+        <v>16.23608875509372</v>
       </c>
       <c r="C6">
-        <v>15.83232902220797</v>
+        <v>16.61340736492095</v>
       </c>
       <c r="D6">
-        <v>15.78816529931873</v>
+        <v>16.51030094065997</v>
       </c>
       <c r="E6">
-        <v>16.02768118630118</v>
+        <v>15.85671852607391</v>
       </c>
       <c r="F6">
-        <v>15.98168597740703</v>
+        <v>15.81081900202394</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -494,19 +494,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.89173383235483</v>
+        <v>16.27903066992426</v>
       </c>
       <c r="C7">
-        <v>15.79827288400095</v>
+        <v>16.73530961878747</v>
       </c>
       <c r="D7">
-        <v>15.74959984022144</v>
+        <v>16.60404779949396</v>
       </c>
       <c r="E7">
-        <v>16.03122435601699</v>
+        <v>15.83041004832505</v>
       </c>
       <c r="F7">
-        <v>15.97802686580219</v>
+        <v>15.77606726157528</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -514,19 +514,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.01977157285999</v>
+        <v>16.32715316784302</v>
       </c>
       <c r="C8">
-        <v>15.77059257545159</v>
+        <v>16.86332808927039</v>
       </c>
       <c r="D8">
-        <v>15.71882323571257</v>
+        <v>16.70161212868444</v>
       </c>
       <c r="E8">
-        <v>16.04068811977114</v>
+        <v>15.81150867740395</v>
       </c>
       <c r="F8">
-        <v>15.98090384153421</v>
+        <v>15.74897775023231</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -534,19 +534,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.14674554670329</v>
+        <v>16.38043274848697</v>
       </c>
       <c r="C9">
-        <v>15.74924089157143</v>
+        <v>16.99733625972606</v>
       </c>
       <c r="D9">
-        <v>15.69578060582214</v>
+        <v>16.80296141151457</v>
       </c>
       <c r="E9">
-        <v>16.05603866454185</v>
+        <v>15.79999739184442</v>
       </c>
       <c r="F9">
-        <v>15.99026608409183</v>
+        <v>15.72953677870016</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -554,19 +554,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.27267571342472</v>
+        <v>16.43884696971963</v>
       </c>
       <c r="C10">
-        <v>15.73417191681467</v>
+        <v>17.13720654982788</v>
       </c>
       <c r="D10">
-        <v>15.68041995755329</v>
+        <v>16.90806358377989</v>
       </c>
       <c r="E10">
-        <v>16.07724274690085</v>
+        <v>15.79585960373885</v>
       </c>
       <c r="F10">
-        <v>16.00606444850639</v>
+        <v>15.71773077865898</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -574,19 +574,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.39758160606467</v>
+        <v>16.50237436678668</v>
       </c>
       <c r="C11">
-        <v>15.72534096085896</v>
+        <v>17.28281024347037</v>
       </c>
       <c r="D11">
-        <v>15.67269189722084</v>
+        <v>17.01688702787749</v>
       </c>
       <c r="E11">
-        <v>16.10426764167795</v>
+        <v>15.7990791296239</v>
       </c>
       <c r="F11">
-        <v>16.02825094423473</v>
+        <v>15.71354629233113</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.52148231440543</v>
+        <v>16.57099437302737</v>
       </c>
       <c r="C12">
-        <v>15.72270448854642</v>
+        <v>17.43401741106359</v>
       </c>
       <c r="D12">
-        <v>15.6725493749397</v>
+        <v>17.12940055457024</v>
       </c>
       <c r="E12">
-        <v>16.13708111928105</v>
+        <v>15.80964014997726</v>
       </c>
       <c r="F12">
-        <v>16.05677825352842</v>
+        <v>15.71696996268133</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -614,19 +614,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.64439646153279</v>
+        <v>16.64468724083442</v>
       </c>
       <c r="C13">
-        <v>15.72622005018346</v>
+        <v>17.59069683413725</v>
       </c>
       <c r="D13">
-        <v>15.67994745488974</v>
+        <v>17.24557339149205</v>
       </c>
       <c r="E13">
-        <v>16.17565142941717</v>
+        <v>15.82752717492717</v>
       </c>
       <c r="F13">
-        <v>16.09159921865773</v>
+        <v>15.72798852367078</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -634,19 +634,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.76634217770907</v>
+        <v>16.72343397630674</v>
       </c>
       <c r="C14">
-        <v>15.73584622382216</v>
+        <v>17.75271592726058</v>
       </c>
       <c r="D14">
-        <v>15.69484307138239</v>
+        <v>17.36537517605846</v>
       </c>
       <c r="E14">
-        <v>16.21994726776364</v>
+        <v>15.85272501315201</v>
       </c>
       <c r="F14">
-        <v>16.1326664945957</v>
+        <v>15.74658878990938</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -654,19 +654,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.88733705807069</v>
+        <v>16.80721628298692</v>
       </c>
       <c r="C15">
-        <v>15.75154256153413</v>
+        <v>17.91994065411841</v>
       </c>
       <c r="D15">
-        <v>15.71719487080326</v>
+        <v>17.48877594603587</v>
       </c>
       <c r="E15">
-        <v>16.26993773764092</v>
+        <v>15.88521874555259</v>
       </c>
       <c r="F15">
-        <v>16.17993212456974</v>
+        <v>15.77275764713303</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -674,19 +674,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.00739812043577</v>
+        <v>16.89601650950006</v>
       </c>
       <c r="C16">
-        <v>15.7732695340327</v>
+        <v>18.09223543734711</v>
       </c>
       <c r="D16">
-        <v>15.74696304003649</v>
+        <v>17.61574612748939</v>
       </c>
       <c r="E16">
-        <v>16.32559231309519</v>
+        <v>15.92499369747888</v>
       </c>
       <c r="F16">
-        <v>16.23334709910408</v>
+        <v>15.80648204146345</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -694,19 +694,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.12654175379996</v>
+        <v>16.98981760160492</v>
       </c>
       <c r="C17">
-        <v>15.80098847506838</v>
+        <v>18.26946306065024</v>
       </c>
       <c r="D17">
-        <v>15.78410915026042</v>
+        <v>17.74625652513549</v>
       </c>
       <c r="E17">
-        <v>16.38688079681925</v>
+        <v>15.97203541001012</v>
       </c>
       <c r="F17">
-        <v>16.29286092242558</v>
+        <v>15.84774896904422</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -714,19 +714,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.24478365032797</v>
+        <v>17.08860305812572</v>
       </c>
       <c r="C18">
-        <v>15.83466152685798</v>
+        <v>18.45148452539967</v>
       </c>
       <c r="D18">
-        <v>15.82859600290718</v>
+        <v>17.88027831083856</v>
       </c>
       <c r="E18">
-        <v>16.45377327599265</v>
+        <v>16.02632961583559</v>
       </c>
       <c r="F18">
-        <v>16.35842117313603</v>
+        <v>15.89654546520931</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -734,19 +734,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.36213872738569</v>
+        <v>17.19235688667925</v>
       </c>
       <c r="C19">
-        <v>15.87425158612183</v>
+        <v>18.63815910068163</v>
       </c>
       <c r="D19">
-        <v>15.88038747803017</v>
+        <v>18.01778301423937</v>
       </c>
       <c r="E19">
-        <v>16.52624007446808</v>
+        <v>16.08786221749675</v>
       </c>
       <c r="F19">
-        <v>16.42997306233909</v>
+        <v>15.95285859315223</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -754,19 +754,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.47862102589654</v>
+        <v>17.30106357179478</v>
       </c>
       <c r="C20">
-        <v>15.91972225139284</v>
+        <v>18.82934404047742</v>
       </c>
       <c r="D20">
-        <v>15.93944838700202</v>
+        <v>18.15874251468449</v>
       </c>
       <c r="E20">
-        <v>16.6042516848558</v>
+        <v>16.15661926501641</v>
       </c>
       <c r="F20">
-        <v>16.50745895642043</v>
+        <v>16.01667543283609</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -774,19 +774,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.59424358941841</v>
+        <v>17.4147080407492</v>
       </c>
       <c r="C21">
-        <v>15.97103776669652</v>
+        <v>19.02489452492139</v>
       </c>
       <c r="D21">
-        <v>16.0057443320248</v>
+        <v>18.30312903256349</v>
       </c>
       <c r="E21">
-        <v>16.68777869756068</v>
+        <v>16.23258693303186</v>
       </c>
       <c r="F21">
-        <v>16.59081786424547</v>
+        <v>16.08798306836063</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -794,19 +794,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.70901832093512</v>
+        <v>17.53327563101422</v>
       </c>
       <c r="C22">
-        <v>16.02816296545446</v>
+        <v>19.22466350070127</v>
       </c>
       <c r="D22">
-        <v>16.07924156109957</v>
+        <v>18.45091511820862</v>
       </c>
       <c r="E22">
-        <v>16.77679171298131</v>
+        <v>16.31575149807526</v>
       </c>
       <c r="F22">
-        <v>16.679984900187</v>
+        <v>16.16676857524961</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -814,19 +814,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.82295580790717</v>
+        <v>17.65675205996469</v>
       </c>
       <c r="C23">
-        <v>16.09106320659726</v>
+        <v>19.42850156756476</v>
       </c>
       <c r="D23">
-        <v>16.15990679124253</v>
+        <v>18.60207364224392</v>
       </c>
       <c r="E23">
-        <v>16.87126124725756</v>
+        <v>16.40609931606744</v>
       </c>
       <c r="F23">
-        <v>16.77489070669209</v>
+        <v>16.25301900520238</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -834,19 +834,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.93606511920198</v>
+        <v>17.78512339743112</v>
       </c>
       <c r="C24">
-        <v>16.15970431138172</v>
+        <v>19.63625687494061</v>
       </c>
       <c r="D24">
-        <v>16.2477070312717</v>
+        <v>18.75657778604968</v>
       </c>
       <c r="E24">
-        <v>16.97115760741277</v>
+        <v>16.50361680018324</v>
       </c>
       <c r="F24">
-        <v>16.87546083918031</v>
+        <v>16.34672137501913</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -854,19 +854,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.04835355746977</v>
+        <v>17.9183760371732</v>
       </c>
       <c r="C25">
-        <v>16.23405249132972</v>
+        <v>19.84777495128181</v>
       </c>
       <c r="D25">
-        <v>16.34260937529504</v>
+        <v>18.91440103211379</v>
       </c>
       <c r="E25">
-        <v>17.07645074780293</v>
+        <v>16.60829039836068</v>
       </c>
       <c r="F25">
-        <v>16.98161510762329</v>
+        <v>16.44786265019643</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -874,19 +874,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>19.15982636175351</v>
+        <v>18.05649667101319</v>
       </c>
       <c r="C26">
-        <v>16.31407426698707</v>
+        <v>20.06289853330621</v>
       </c>
       <c r="D26">
-        <v>16.44458076598059</v>
+        <v>19.07551715507948</v>
       </c>
       <c r="E26">
-        <v>17.18711009309803</v>
+        <v>16.72010656942043</v>
       </c>
       <c r="F26">
-        <v>17.09326686764433</v>
+        <v>16.55642972670387</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -894,19 +894,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>19.27048636483822</v>
+        <v>18.19947226248303</v>
       </c>
       <c r="C27">
-        <v>16.39973638155528</v>
+        <v>20.28146739310507</v>
       </c>
       <c r="D27">
-        <v>16.55358772608131</v>
+        <v>19.23990021179391</v>
       </c>
       <c r="E27">
-        <v>17.30310433596437</v>
+        <v>16.83905175844845</v>
       </c>
       <c r="F27">
-        <v>17.21032225914866</v>
+        <v>16.67240941255867</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -914,19 +914,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>19.38033358598713</v>
+        <v>18.34729002279263</v>
       </c>
       <c r="C28">
-        <v>16.4910057086495</v>
+        <v>20.50331815641914</v>
       </c>
       <c r="D28">
-        <v>16.66959603041769</v>
+        <v>19.40752453098758</v>
       </c>
       <c r="E28">
-        <v>17.42440118117928</v>
+        <v>16.9651123715138</v>
       </c>
       <c r="F28">
-        <v>17.33267939024879</v>
+        <v>16.79578840757956</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -934,19 +934,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>19.48936476090975</v>
+        <v>18.49993738425924</v>
       </c>
       <c r="C29">
-        <v>16.58784913001393</v>
+        <v>20.72828411721942</v>
       </c>
       <c r="D29">
-        <v>16.79257032276796</v>
+        <v>19.57836470289831</v>
       </c>
       <c r="E29">
-        <v>17.55096703409436</v>
+        <v>17.09827474683453</v>
       </c>
       <c r="F29">
-        <v>17.46022746458582</v>
+        <v>16.92655328180173</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -954,19 +954,19 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>19.59757279951275</v>
+        <v>18.65740197268358</v>
       </c>
       <c r="C30">
-        <v>16.69023340619257</v>
+        <v>20.95619503849754</v>
       </c>
       <c r="D30">
-        <v>16.92247365570282</v>
+        <v>19.75239556845944</v>
       </c>
       <c r="E30">
-        <v>17.68276663287126</v>
+        <v>17.23852512523799</v>
       </c>
       <c r="F30">
-        <v>17.59284584872648</v>
+        <v>17.06469045306779</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -974,19 +974,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>19.70494613348916</v>
+        <v>18.81967158033947</v>
       </c>
       <c r="C31">
-        <v>16.79812504545644</v>
+        <v>21.18687693027359</v>
       </c>
       <c r="D31">
-        <v>17.05926693713296</v>
+        <v>19.92959220801255</v>
       </c>
       <c r="E31">
-        <v>17.81976259032297</v>
+        <v>17.38584962058241</v>
       </c>
       <c r="F31">
-        <v>17.73040307694143</v>
+        <v>17.21018616022193</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -994,19 +994,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>19.81146799082464</v>
+        <v>18.98673413623612</v>
       </c>
       <c r="C32">
-        <v>16.91149010836499</v>
+        <v>21.42015181501509</v>
       </c>
       <c r="D32">
-        <v>17.20290826310131</v>
+        <v>20.10992992948777</v>
       </c>
       <c r="E32">
-        <v>17.96191488838356</v>
+        <v>17.54023418183725</v>
       </c>
       <c r="F32">
-        <v>17.87275579256801</v>
+        <v>17.36302643313672</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1014,19 +1014,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>19.91711557397383</v>
+        <v>19.15857767434228</v>
       </c>
       <c r="C33">
-        <v>17.03029400305521</v>
+        <v>21.655837481674</v>
       </c>
       <c r="D33">
-        <v>17.35335210850828</v>
+        <v>20.29338425576181</v>
       </c>
       <c r="E33">
-        <v>18.1091801757566</v>
+        <v>17.70166455512753</v>
       </c>
       <c r="F33">
-        <v>18.01974762651476</v>
+        <v>17.52319705962669</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1034,19 +1034,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>20.02185910382293</v>
+        <v>19.33519029898537</v>
       </c>
       <c r="C34">
-        <v>17.15450126766114</v>
+        <v>21.89374721681459</v>
       </c>
       <c r="D34">
-        <v>17.51054835867136</v>
+        <v>20.4799309110637</v>
       </c>
       <c r="E34">
-        <v>18.26151099982233</v>
+        <v>17.87012624507194</v>
       </c>
       <c r="F34">
-        <v>18.17120801410293</v>
+        <v>17.69068354946633</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1054,19 +1054,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>20.12566078845411</v>
+        <v>19.51656014736143</v>
       </c>
       <c r="C35">
-        <v>17.28407526556533</v>
+        <v>22.13368952423798</v>
       </c>
       <c r="D35">
-        <v>17.67444113923147</v>
+        <v>20.66954580626615</v>
       </c>
       <c r="E35">
-        <v>18.41885483183778</v>
+        <v>18.04560446328547</v>
       </c>
       <c r="F35">
-        <v>18.32695095245868</v>
+        <v>17.86547109199893</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1074,19 +1074,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>20.22847359129029</v>
+        <v>19.70267534452327</v>
       </c>
       <c r="C36">
-        <v>17.41897782866043</v>
+        <v>22.37546782175805</v>
       </c>
       <c r="D36">
-        <v>17.8449673890057</v>
+        <v>20.86220502301288</v>
       </c>
       <c r="E36">
-        <v>18.5811529721539</v>
+        <v>18.22808407519652</v>
       </c>
       <c r="F36">
-        <v>18.48677370260685</v>
+        <v>18.04754451021524</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1094,19 +1094,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>20.33023993850851</v>
+        <v>19.89352395453291</v>
       </c>
       <c r="C37">
-        <v>17.55916886571242</v>
+        <v>22.61888011458012</v>
       </c>
       <c r="D37">
-        <v>18.02205515104938</v>
+        <v>21.05788479570429</v>
       </c>
       <c r="E37">
-        <v>18.7483391339307</v>
+        <v>18.41754954521176</v>
       </c>
       <c r="F37">
-        <v>18.65045544287268</v>
+        <v>18.23688820779287</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1114,19 +1114,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>20.43089028163725</v>
+        <v>20.08909392553394</v>
       </c>
       <c r="C38">
-        <v>17.70460588608729</v>
+        <v>22.86371864814377</v>
       </c>
       <c r="D38">
-        <v>18.20562151594378</v>
+        <v>21.25656149186235</v>
       </c>
       <c r="E38">
-        <v>18.92033778074492</v>
+        <v>18.61398486541911</v>
       </c>
       <c r="F38">
-        <v>18.81775588278187</v>
+        <v>18.43348610816317</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1134,19 +1134,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>20.5303415297523</v>
+        <v>20.2893730255256</v>
       </c>
       <c r="C39">
-        <v>17.85524333651428</v>
+        <v>23.10976953440944</v>
       </c>
       <c r="D39">
-        <v>18.39557015521082</v>
+        <v>21.4582115898863</v>
       </c>
       <c r="E39">
-        <v>19.09706216432987</v>
+        <v>18.81737347579881</v>
       </c>
       <c r="F39">
-        <v>18.98841384950507</v>
+        <v>18.63732158805841</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1154,19 +1154,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>20.62849542080078</v>
+        <v>20.49434876409384</v>
       </c>
       <c r="C40">
-        <v>18.01103184936089</v>
+        <v>23.35681234631252</v>
       </c>
       <c r="D40">
-        <v>18.5917883714543</v>
+        <v>21.66281165351883</v>
       </c>
       <c r="E40">
-        <v>19.27841197627832</v>
+        <v>19.02769818065611</v>
       </c>
       <c r="F40">
-        <v>19.16214586234865</v>
+        <v>18.84837739584777</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1174,19 +1174,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>20.72523671394521</v>
+        <v>20.70400830390275</v>
       </c>
       <c r="C41">
-        <v>18.17191749150556</v>
+        <v>23.60461968928693</v>
       </c>
       <c r="D41">
-        <v>18.79414355602288</v>
+        <v>21.87033830348197</v>
       </c>
       <c r="E41">
-        <v>19.46427068993183</v>
+        <v>19.24494104872326</v>
       </c>
       <c r="F41">
-        <v>19.33864471493087</v>
+        <v>19.06663556131428</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1194,19 +1194,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>20.82043139668715</v>
+        <v>20.91833836073845</v>
       </c>
       <c r="C42">
-        <v>18.33784045132419</v>
+        <v>23.85295673790563</v>
       </c>
       <c r="D42">
-        <v>19.00247910182782</v>
+        <v>22.08076818318164</v>
       </c>
       <c r="E42">
-        <v>19.65450211251009</v>
+        <v>19.46908328592373</v>
       </c>
       <c r="F42">
-        <v>19.51757808939109</v>
+        <v>19.29207729036741</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1214,19 +1214,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>20.91392484044677</v>
+        <v>21.13732507885771</v>
       </c>
       <c r="C43">
-        <v>18.50873365177341</v>
+        <v>24.10158073512277</v>
       </c>
       <c r="D43">
-        <v>19.21660939534715</v>
+        <v>22.29407791962752</v>
       </c>
       <c r="E43">
-        <v>19.84894662363216</v>
+        <v>19.70010509900702</v>
       </c>
       <c r="F43">
-        <v>19.69858723219688</v>
+        <v>19.52468284099767</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1234,19 +1234,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>21.0055400178111</v>
+        <v>21.36095387976104</v>
       </c>
       <c r="C44">
-        <v>18.68452126282182</v>
+        <v>24.35024046914603</v>
       </c>
       <c r="D44">
-        <v>19.43631405574807</v>
+        <v>22.51024407673299</v>
       </c>
       <c r="E44">
-        <v>20.0474166411579</v>
+        <v>19.93798555578319</v>
       </c>
       <c r="F44">
-        <v>19.88128572687633</v>
+        <v>19.76443138460895</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>21.09507579649862</v>
+        <v>21.58920928887551</v>
       </c>
       <c r="C45">
-        <v>18.86511639345193</v>
+        <v>24.59867568577544</v>
       </c>
       <c r="D45">
-        <v>19.66133120747004</v>
+        <v>22.72924309944866</v>
       </c>
       <c r="E45">
-        <v>20.24969170455042</v>
+        <v>20.18270236746389</v>
       </c>
       <c r="F45">
-        <v>20.0652584053237</v>
+        <v>20.01130083385043</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>21.18230542691365</v>
+        <v>21.82207473647063</v>
       </c>
       <c r="C46">
-        <v>19.05041835636193</v>
+        <v>24.84661647916622</v>
       </c>
       <c r="D46">
-        <v>19.89134970810102</v>
+        <v>22.9510512473251</v>
       </c>
       <c r="E46">
-        <v>20.45551231348624</v>
+        <v>20.43423166845615</v>
       </c>
       <c r="F46">
-        <v>20.25006044611268</v>
+        <v>20.26526764420563</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>21.26697533464318</v>
+        <v>22.05953229895716</v>
       </c>
       <c r="C47">
-        <v>19.2403090897753</v>
+        <v>25.09378263318564</v>
       </c>
       <c r="D47">
-        <v>20.12600027294712</v>
+        <v>23.17564451434894</v>
       </c>
       <c r="E47">
-        <v>20.66457327523667</v>
+        <v>20.69254778908918</v>
       </c>
       <c r="F47">
-        <v>20.43521671533204</v>
+        <v>20.52630657842086</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1314,19 +1314,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>21.34880432108077</v>
+        <v>22.30156238979852</v>
       </c>
       <c r="C48">
-        <v>19.43464897327421</v>
+        <v>25.33988290294973</v>
       </c>
       <c r="D48">
-        <v>20.36484545683579</v>
+        <v>23.40299852711143</v>
       </c>
       <c r="E48">
-        <v>20.87651626352961</v>
+        <v>20.95762289639538</v>
       </c>
       <c r="F48">
-        <v>20.6202214126194</v>
+        <v>20.79439042481309</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1334,19 +1334,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>21.42748334393516</v>
+        <v>22.5481433873017</v>
       </c>
       <c r="C49">
-        <v>19.63327149181154</v>
+        <v>25.58461429393775</v>
       </c>
       <c r="D49">
-        <v>20.6073686257267</v>
+        <v>23.63308842202643</v>
       </c>
       <c r="E49">
-        <v>21.09092175697973</v>
+        <v>21.22942661088823</v>
       </c>
       <c r="F49">
-        <v>20.80453809203927</v>
+        <v>21.0694896680861</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1354,19 +1354,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>21.50267584330794</v>
+        <v>22.79925121973246</v>
       </c>
       <c r="C50">
-        <v>19.8359763248801</v>
+        <v>25.82766126422306</v>
       </c>
       <c r="D50">
-        <v>20.85296198481703</v>
+        <v>23.86588869057851</v>
       </c>
       <c r="E50">
-        <v>21.30730031853272</v>
+        <v>21.5079256026333</v>
       </c>
       <c r="F50">
-        <v>20.98760013386679</v>
+        <v>21.3515720788012</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1374,19 +1374,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>21.57401905655501</v>
+        <v>23.05485879465507</v>
       </c>
       <c r="C51">
-        <v>20.04252062071854</v>
+        <v>26.06869487069139</v>
       </c>
       <c r="D51">
-        <v>21.10091384243382</v>
+        <v>24.10137297985468</v>
       </c>
       <c r="E51">
-        <v>21.52508326229015</v>
+        <v>21.79308299423887</v>
       </c>
       <c r="F51">
-        <v>21.16881175255109</v>
+        <v>21.64060221447895</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1394,19 +1394,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>21.64112609316773</v>
+        <v>23.3149353281623</v>
       </c>
       <c r="C52">
-        <v>20.25260862494381</v>
+        <v>26.30737189078827</v>
       </c>
       <c r="D52">
-        <v>21.35039587884708</v>
+        <v>24.33951385469284</v>
       </c>
       <c r="E52">
-        <v>21.74361379135791</v>
+        <v>22.08485764666797</v>
       </c>
       <c r="F52">
-        <v>21.34754960304031</v>
+        <v>21.93654081899216</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1414,19 +1414,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>21.7470482831944</v>
+        <v>23.57944550579721</v>
       </c>
       <c r="C53">
-        <v>20.49566319544288</v>
+        <v>26.54333391177298</v>
       </c>
       <c r="D53">
-        <v>21.63313928465589</v>
+        <v>24.58028246452919</v>
       </c>
       <c r="E53">
-        <v>21.98783139745917</v>
+        <v>22.3832033834274</v>
       </c>
       <c r="F53">
-        <v>21.55330052744993</v>
+        <v>22.23934407111947</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1434,19 +1434,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>21.9305048528798</v>
+        <v>23.84834855665136</v>
       </c>
       <c r="C54">
-        <v>20.80020169729923</v>
+        <v>26.77620640287149</v>
       </c>
       <c r="D54">
-        <v>21.97861453534146</v>
+        <v>24.82364813764355</v>
       </c>
       <c r="E54">
-        <v>22.28102800807168</v>
+        <v>22.68806797800051</v>
       </c>
       <c r="F54">
-        <v>21.81284696212368</v>
+        <v>22.54896267455419</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1454,19 +1454,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>22.18462673564737</v>
+        <v>24.12159691189906</v>
       </c>
       <c r="C55">
-        <v>21.16423641561673</v>
+        <v>27.00559777904846</v>
       </c>
       <c r="D55">
-        <v>22.38196787488195</v>
+        <v>25.06957782084493</v>
       </c>
       <c r="E55">
-        <v>22.6196334649991</v>
+        <v>22.99939173363092</v>
       </c>
       <c r="F55">
-        <v>22.12130284421429</v>
+        <v>22.8653407130455</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1474,19 +1474,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>22.50238949511484</v>
+        <v>24.39913464357142</v>
       </c>
       <c r="C56">
-        <v>21.58531256073064</v>
+        <v>27.23109848547679</v>
       </c>
       <c r="D56">
-        <v>22.83758118270226</v>
+        <v>25.31803530663575</v>
       </c>
       <c r="E56">
-        <v>22.99955264820512</v>
+        <v>23.317106112581</v>
       </c>
       <c r="F56">
-        <v>22.47355194666995</v>
+        <v>23.18841416101913</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1494,19 +1494,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>22.87649675923722</v>
+        <v>24.68089543737715</v>
       </c>
       <c r="C57">
-        <v>22.06037948562971</v>
+        <v>27.45228014581049</v>
       </c>
       <c r="D57">
-        <v>23.33902350710217</v>
+        <v>25.56898027057377</v>
       </c>
       <c r="E57">
-        <v>23.41613596058266</v>
+        <v>23.64113129604468</v>
       </c>
       <c r="F57">
-        <v>22.86426345474512</v>
+        <v>23.51810903875654</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1514,19 +1514,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>23.29934844837391</v>
+        <v>24.96680037048673</v>
       </c>
       <c r="C58">
-        <v>22.58564580278194</v>
+        <v>27.6686948184145</v>
       </c>
       <c r="D58">
-        <v>23.8790356100806</v>
+        <v>25.82236692106905</v>
       </c>
       <c r="E58">
-        <v>23.86416895591966</v>
+        <v>23.97137367146113</v>
       </c>
       <c r="F58">
-        <v>23.28791515330666</v>
+        <v>23.85433900566419</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1534,19 +1534,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>23.76305842252228</v>
+        <v>25.25675451362416</v>
       </c>
       <c r="C59">
-        <v>23.15641039045853</v>
+        <v>27.87987445928834</v>
       </c>
       <c r="D59">
-        <v>24.4495534725363</v>
+        <v>26.07814211394701</v>
       </c>
       <c r="E59">
-        <v>24.33788925744365</v>
+        <v>24.30772253787671</v>
       </c>
       <c r="F59">
-        <v>23.73882393243995</v>
+        <v>24.19700252737075</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1554,19 +1554,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>24.25950496967792</v>
+        <v>25.55064300309841</v>
       </c>
       <c r="C60">
-        <v>23.76690088768078</v>
+        <v>28.08533055571991</v>
       </c>
       <c r="D60">
-        <v>25.04178584674239</v>
+        <v>26.33624272446282</v>
       </c>
       <c r="E60">
-        <v>24.83103601023109</v>
+        <v>24.6500456602991</v>
       </c>
       <c r="F60">
-        <v>24.2111844584358</v>
+        <v>24.54597826554224</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1574,19 +1574,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>24.78040880653093</v>
+        <v>25.8483263395722</v>
       </c>
       <c r="C61">
-        <v>24.4101223353059</v>
+        <v>28.28455428396999</v>
       </c>
       <c r="D61">
-        <v>25.64635505490245</v>
+        <v>26.59659199073086</v>
       </c>
       <c r="E61">
-        <v>25.3369371507097</v>
+        <v>24.99818338424232</v>
       </c>
       <c r="F61">
-        <v>24.69911638492338</v>
+        <v>24.90111994215115</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1594,19 +1594,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>25.31743328365565</v>
+        <v>26.14963297585872</v>
       </c>
       <c r="C62">
-        <v>25.07775836435045</v>
+        <v>28.47701718527826</v>
       </c>
       <c r="D62">
-        <v>26.25350683533305</v>
+        <v>26.85909443866773</v>
       </c>
       <c r="E62">
-        <v>25.84863776755174</v>
+        <v>25.35194088688299</v>
       </c>
       <c r="F62">
-        <v>25.19672118178902</v>
+        <v>25.26224920920081</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1614,19 +1614,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>25.86230417500933</v>
+        <v>26.45435117005631</v>
       </c>
       <c r="C63">
-        <v>25.76016376678994</v>
+        <v>28.66217255895126</v>
       </c>
       <c r="D63">
-        <v>26.85338925959149</v>
+        <v>27.12362812064835</v>
       </c>
       <c r="E63">
-        <v>26.35906750977028</v>
+        <v>25.7110778604581</v>
       </c>
       <c r="F63">
-        <v>25.69814861705187</v>
+        <v>25.62914575912652</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1634,19 +1634,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>26.4069437219166</v>
+        <v>26.76221826020811</v>
       </c>
       <c r="C64">
-        <v>26.44649782403852</v>
+        <v>28.8394576707867</v>
       </c>
       <c r="D64">
-        <v>27.43638909225676</v>
+        <v>27.39003439512004</v>
       </c>
       <c r="E64">
-        <v>26.86124009244518</v>
+        <v>26.07529459004888</v>
       </c>
       <c r="F64">
-        <v>26.19767245503265</v>
+        <v>26.00153371765271</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1654,19 +1654,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>26.9436150217073</v>
+        <v>27.07290628071506</v>
       </c>
       <c r="C65">
-        <v>27.12503836729087</v>
+        <v>29.00829804262357</v>
       </c>
       <c r="D65">
-        <v>27.99350335933505</v>
+        <v>27.65810296590363</v>
       </c>
       <c r="E65">
-        <v>27.34847441064368</v>
+        <v>26.44421360022481</v>
       </c>
       <c r="F65">
-        <v>26.68977439531951</v>
+        <v>26.37906287062246</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1674,19 +1674,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>27.4650703170743</v>
+        <v>27.38600312495154</v>
       </c>
       <c r="C66">
-        <v>27.78369418002677</v>
+        <v>29.16811255756468</v>
       </c>
       <c r="D66">
-        <v>28.51671249613936</v>
+        <v>27.92755102678726</v>
       </c>
       <c r="E66">
-        <v>27.81461845221648</v>
+        <v>26.81735266263257</v>
       </c>
       <c r="F66">
-        <v>27.16923352814807</v>
+        <v>26.76128235944904</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1694,19 +1694,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>27.96469609632386</v>
+        <v>27.7009883547689</v>
       </c>
       <c r="C67">
-        <v>28.41068938399705</v>
+        <v>29.31832065201634</v>
       </c>
       <c r="D67">
-        <v>28.99931521434375</v>
+        <v>28.1979946945619</v>
       </c>
       <c r="E67">
-        <v>28.25425727865596</v>
+        <v>27.19408886173439</v>
       </c>
       <c r="F67">
-        <v>27.6312189278908</v>
+        <v>27.14760415728336</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1714,19 +1714,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>28.43664721889266</v>
+        <v>28.01720197581355</v>
       </c>
       <c r="C68">
-        <v>28.99534222234445</v>
+        <v>29.45835206190467</v>
       </c>
       <c r="D68">
-        <v>29.43618501653819</v>
+        <v>28.46891112896616</v>
       </c>
       <c r="E68">
-        <v>28.66288562194317</v>
+        <v>27.57361073317374</v>
       </c>
       <c r="F68">
-        <v>28.07138186744151</v>
+        <v>27.53724839957212</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1734,19 +1734,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>28.87596196142928</v>
+        <v>28.33380231342579</v>
       </c>
       <c r="C69">
-        <v>29.52881510633011</v>
+        <v>29.58765906857128</v>
       </c>
       <c r="D69">
-        <v>29.82391661564575</v>
+        <v>28.73958993412812</v>
       </c>
       <c r="E69">
-        <v>29.03702686417425</v>
+        <v>27.95485111936713</v>
       </c>
       <c r="F69">
-        <v>28.48593967198123</v>
+        <v>27.92916916262774</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1754,19 +1754,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>29.27865046858574</v>
+        <v>28.64971600421453</v>
       </c>
       <c r="C70">
-        <v>30.00469835769741</v>
+        <v>29.70573113316694</v>
       </c>
       <c r="D70">
-        <v>30.16084570747744</v>
+        <v>29.00907372043694</v>
       </c>
       <c r="E70">
-        <v>29.37428965934239</v>
+        <v>28.3363939801132</v>
       </c>
       <c r="F70">
-        <v>28.87174754329396</v>
+        <v>28.32195074516745</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1774,19 +1774,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>29.6417503525698</v>
+        <v>28.9635746118445</v>
       </c>
       <c r="C71">
-        <v>30.41931828135125</v>
+        <v>29.81211168615127</v>
       </c>
       <c r="D71">
-        <v>30.44694455231395</v>
+        <v>29.27609097614337</v>
       </c>
       <c r="E71">
-        <v>29.67335838456268</v>
+        <v>28.71635549477066</v>
       </c>
       <c r="F71">
-        <v>29.22635317345907</v>
+        <v>28.71366126750902</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1794,19 +1794,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>29.96334519408865</v>
+        <v>29.27363858053395</v>
       </c>
       <c r="C72">
-        <v>30.77172287917313</v>
+        <v>29.90641623659571</v>
       </c>
       <c r="D72">
-        <v>30.68361397059305</v>
+        <v>29.53898534653521</v>
       </c>
       <c r="E72">
-        <v>29.93392367552326</v>
+        <v>29.0922336571656</v>
       </c>
       <c r="F72">
-        <v>29.54802717554907</v>
+        <v>29.10166652291135</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1814,19 +1814,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>30.24254423715597</v>
+        <v>29.57771460782461</v>
       </c>
       <c r="C73">
-        <v>31.06337732278557</v>
+        <v>29.98835074875298</v>
       </c>
       <c r="D73">
-        <v>30.87340442253415</v>
+        <v>29.79565258526545</v>
       </c>
       <c r="E73">
-        <v>30.15656443944307</v>
+        <v>29.46073356884078</v>
       </c>
       <c r="F73">
-        <v>29.83576672519553</v>
+        <v>29.48240886947526</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1834,19 +1834,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>30.47942434691599</v>
+        <v>29.87307510080354</v>
       </c>
       <c r="C74">
-        <v>31.29765791564689</v>
+        <v>30.0577284036087</v>
       </c>
       <c r="D74">
-        <v>31.01970495404282</v>
+        <v>30.04350108860114</v>
       </c>
       <c r="E74">
-        <v>30.34259737232507</v>
+        <v>29.81759907496539</v>
       </c>
       <c r="F74">
-        <v>30.08927038141059</v>
+        <v>29.85118884402489</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1854,19 +1854,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>30.6749379993604</v>
+        <v>30.15639916465627</v>
       </c>
       <c r="C75">
-        <v>31.47925999761659</v>
+        <v>30.11448255865139</v>
       </c>
       <c r="D75">
-        <v>31.12643525818728</v>
+        <v>30.27945891046229</v>
       </c>
       <c r="E75">
-        <v>30.49391193199108</v>
+        <v>30.15751094341337</v>
       </c>
       <c r="F75">
-        <v>30.30888512756475</v>
+        <v>30.2020393158571</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1874,19 +1874,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>30.83079338184164</v>
+        <v>30.42377159169541</v>
       </c>
       <c r="C76">
-        <v>31.613622394264</v>
+        <v>30.15867393667746</v>
       </c>
       <c r="D76">
-        <v>31.19776858666197</v>
+        <v>30.50005362021112</v>
       </c>
       <c r="E76">
-        <v>30.612804340699</v>
+        <v>30.47415208871587</v>
       </c>
       <c r="F76">
-        <v>30.49552940401295</v>
+        <v>30.52783185580971</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1894,19 +1894,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>30.94931438294226</v>
+        <v>30.6707817967953</v>
       </c>
       <c r="C77">
-        <v>31.70643903376194</v>
+        <v>30.19049178853011</v>
       </c>
       <c r="D77">
-        <v>31.2379027523044</v>
+        <v>30.701587442876</v>
       </c>
       <c r="E77">
-        <v>30.70182428736977</v>
+        <v>30.76057199380755</v>
       </c>
       <c r="F77">
-        <v>30.65059809791129</v>
+        <v>30.82077322109002</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1914,19 +1914,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>31.03328925322443</v>
+        <v>30.89276439264931</v>
       </c>
       <c r="C78">
-        <v>31.76329073654187</v>
+        <v>30.21024738592692</v>
       </c>
       <c r="D78">
-        <v>31.25088628728049</v>
+        <v>30.88041321343114</v>
       </c>
       <c r="E78">
-        <v>30.76364215649433</v>
+        <v>31.00990817723732</v>
       </c>
       <c r="F78">
-        <v>30.77585709307415</v>
+        <v>31.07335936001293</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -1934,19 +1934,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>31.08581695752255</v>
+        <v>31.08520885457529</v>
       </c>
       <c r="C79">
-        <v>31.78939898186696</v>
+        <v>30.21836088972494</v>
       </c>
       <c r="D79">
-        <v>31.2404986536403</v>
+        <v>31.03328637345678</v>
       </c>
       <c r="E79">
-        <v>30.80093994614112</v>
+        <v>31.21641590716341</v>
       </c>
       <c r="F79">
-        <v>30.87333539759181</v>
+        <v>31.27963472979918</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -1954,19 +1954,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>31.11015950718111</v>
+        <v>31.24429775124353</v>
       </c>
       <c r="C80">
-        <v>31.78948535249346</v>
+        <v>30.21534340131898</v>
       </c>
       <c r="D80">
-        <v>31.21017802631491</v>
+        <v>31.15773230597524</v>
       </c>
       <c r="E80">
-        <v>30.81632796850386</v>
+        <v>31.37651876385351</v>
       </c>
       <c r="F80">
-        <v>30.94522224180221</v>
+        <v>31.43635622284156</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -1974,19 +1974,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>31.10960796021755</v>
+        <v>31.36746614534477</v>
       </c>
       <c r="C81">
-        <v>31.76771186011034</v>
+        <v>30.20177587596612</v>
       </c>
       <c r="D81">
-        <v>31.16298771179304</v>
+        <v>31.25234490016086</v>
       </c>
       <c r="E81">
-        <v>30.81228507391796</v>
+        <v>31.48948999311533</v>
       </c>
       <c r="F81">
-        <v>30.99377503908678</v>
+        <v>31.54357633669142</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -1994,19 +1994,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>31.08736825443189</v>
+        <v>31.45382033511662</v>
       </c>
       <c r="C82">
-        <v>31.72767745236634</v>
+        <v>30.17828733220673</v>
       </c>
       <c r="D82">
-        <v>31.1016112531021</v>
+        <v>31.31693806518678</v>
       </c>
       <c r="E82">
-        <v>30.79111938988519</v>
+        <v>31.55747725384796</v>
       </c>
       <c r="F82">
-        <v>31.0212420576079</v>
+        <v>31.60442625882297</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2014,19 +2014,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>31.04647111997381</v>
+        <v>31.50426898022321</v>
       </c>
       <c r="C83">
-        <v>31.67244963247319</v>
+        <v>30.14553395161421</v>
       </c>
       <c r="D83">
-        <v>31.0283674280304</v>
+        <v>31.35251210234911</v>
       </c>
       <c r="E83">
-        <v>30.75494630171569</v>
+        <v>31.5848895926661</v>
       </c>
       <c r="F83">
-        <v>31.02980162624267</v>
+        <v>31.62423670592532</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2034,19 +2034,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>30.98970676737421</v>
+        <v>31.52132118576273</v>
       </c>
       <c r="C84">
-        <v>31.6046144416334</v>
+        <v>30.10418064750655</v>
       </c>
       <c r="D84">
-        <v>30.94523761340832</v>
+        <v>31.36105359900476</v>
       </c>
       <c r="E84">
-        <v>30.70567956806496</v>
+        <v>31.57743908081555</v>
       </c>
       <c r="F84">
-        <v>31.02151778451267</v>
+        <v>31.60941215136319</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2054,19 +2054,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>30.91958371962856</v>
+        <v>31.50863414153157</v>
       </c>
       <c r="C85">
-        <v>31.52633489995595</v>
+        <v>30.0548857225753</v>
       </c>
       <c r="D85">
-        <v>30.85389971440998</v>
+        <v>31.3452326101843</v>
       </c>
       <c r="E85">
-        <v>30.64503211634379</v>
+        <v>31.54119668080745</v>
       </c>
       <c r="F85">
-        <v>30.99831095404461</v>
+        <v>31.56643973154628</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2074,19 +2074,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>30.83822915777599</v>
+        <v>31.47045544853121</v>
       </c>
       <c r="C86">
-        <v>31.43937770910435</v>
+        <v>29.99828887599225</v>
       </c>
       <c r="D86">
-        <v>30.75574525158168</v>
+        <v>31.30807534966188</v>
       </c>
       <c r="E86">
-        <v>30.57445413361943</v>
+        <v>31.48189580948452</v>
       </c>
       <c r="F86">
-        <v>30.96176999278466</v>
+        <v>31.5012428743548</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2094,19 +2094,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>30.74752489086564</v>
+        <v>31.41111467976927</v>
       </c>
       <c r="C87">
-        <v>31.34521918557517</v>
+        <v>29.93500239635521</v>
       </c>
       <c r="D87">
-        <v>30.65194298358337</v>
+        <v>31.252676755273</v>
       </c>
       <c r="E87">
-        <v>30.49524692723503</v>
+        <v>31.40454421086023</v>
       </c>
       <c r="F87">
-        <v>30.91339405524823</v>
+        <v>31.41886077323401</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2114,19 +2114,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>30.64916034058979</v>
+        <v>31.33465536057395</v>
       </c>
       <c r="C88">
-        <v>31.24511375721325</v>
+        <v>29.86560526841002</v>
       </c>
       <c r="D88">
-        <v>30.5434911224491</v>
+        <v>31.18198729405383</v>
       </c>
       <c r="E88">
-        <v>30.40862983787113</v>
+        <v>31.3132882095598</v>
       </c>
       <c r="F88">
-        <v>30.85470904635783</v>
+        <v>31.32338366375362</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2134,19 +2134,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>30.54454518774708</v>
+        <v>31.24463101984042</v>
       </c>
       <c r="C89">
-        <v>31.14009159441984</v>
+        <v>29.79063957719618</v>
       </c>
       <c r="D89">
-        <v>30.43121195973698</v>
+        <v>31.09868055242318</v>
       </c>
       <c r="E89">
-        <v>30.31565459166014</v>
+        <v>31.21143773322919</v>
       </c>
       <c r="F89">
-        <v>30.78705510217398</v>
+        <v>31.21802549997059</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2154,19 +2154,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>30.43484205811757</v>
+        <v>31.14401838355726</v>
       </c>
       <c r="C90">
-        <v>31.03100100963085</v>
+        <v>29.71060889920527</v>
       </c>
       <c r="D90">
-        <v>30.31578609619656</v>
+        <v>31.00509008933904</v>
       </c>
       <c r="E90">
-        <v>30.21722972233346</v>
+        <v>31.1015705961264</v>
       </c>
       <c r="F90">
-        <v>30.7116044983349</v>
+        <v>31.10525814658232</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2174,19 +2174,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>30.32100694069216</v>
+        <v>31.03523874832081</v>
       </c>
       <c r="C91">
-        <v>30.918537303083</v>
+        <v>29.62597809081788</v>
       </c>
       <c r="D91">
-        <v>30.19777336708173</v>
+        <v>30.90319673914041</v>
       </c>
       <c r="E91">
-        <v>30.11413835149384</v>
+        <v>30.98566217219574</v>
       </c>
       <c r="F91">
-        <v>30.62937802598429</v>
+        <v>30.98695605675691</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2194,19 +2194,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>30.20381967644261</v>
+        <v>30.92021059074302</v>
       </c>
       <c r="C92">
-        <v>30.80327461575247</v>
+        <v>29.53717406135539</v>
       </c>
       <c r="D92">
-        <v>30.07763441527852</v>
+        <v>30.79464751316475</v>
       </c>
       <c r="E92">
-        <v>30.0070512401072</v>
+        <v>30.86521109645727</v>
       </c>
       <c r="F92">
-        <v>30.54126436241247</v>
+        <v>30.86452918507701</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2214,19 +2214,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>30.08391357696884</v>
+        <v>30.80043069516319</v>
       </c>
       <c r="C93">
-        <v>30.68568709839259</v>
+        <v>29.44458719610144</v>
       </c>
       <c r="D93">
-        <v>29.95574985832274</v>
+        <v>30.6807912502375</v>
       </c>
       <c r="E93">
-        <v>29.89654451770686</v>
+        <v>30.74134822447812</v>
       </c>
       <c r="F93">
-        <v>30.44803468662241</v>
+        <v>30.73903307169304</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2234,19 +2234,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>29.96180390274101</v>
+        <v>30.67705384428734</v>
       </c>
       <c r="C94">
-        <v>30.56616545193843</v>
+        <v>29.34857343730035</v>
       </c>
       <c r="D94">
-        <v>29.83243380450201</v>
+        <v>30.56272036077881</v>
       </c>
       <c r="E94">
-        <v>29.78311402957984</v>
+        <v>30.61492434798597</v>
       </c>
       <c r="F94">
-        <v>30.35035648798058</v>
+        <v>30.61125618298371</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2254,19 +2254,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>29.83790861398123</v>
+        <v>30.55096382559623</v>
       </c>
       <c r="C95">
-        <v>30.4450332121768</v>
+        <v>29.24945660756248</v>
       </c>
       <c r="D95">
-        <v>29.70794434337025</v>
+        <v>30.4413126934664</v>
       </c>
       <c r="E95">
-        <v>29.66718431764229</v>
+        <v>30.48657951848432</v>
       </c>
       <c r="F95">
-        <v>30.24880729772539</v>
+        <v>30.48178755047733</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2274,19 +2274,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>29.71256573081644</v>
+        <v>30.42283380390388</v>
       </c>
       <c r="C96">
-        <v>30.3225599084423</v>
+        <v>29.14753076385753</v>
       </c>
       <c r="D96">
-        <v>29.5824940207801</v>
+        <v>30.31727014705516</v>
       </c>
       <c r="E96">
-        <v>29.54911934633903</v>
+        <v>30.35679574980088</v>
       </c>
       <c r="F96">
-        <v>30.14388846948619</v>
+        <v>30.35106778083419</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2294,19 +2294,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>29.5860493333961</v>
+        <v>30.29317548027969</v>
       </c>
       <c r="C97">
-        <v>30.1989702432366</v>
+        <v>29.04306249137375</v>
       </c>
       <c r="D97">
-        <v>29.45625952086518</v>
+        <v>30.19115203237307</v>
       </c>
       <c r="E97">
-        <v>29.42923111360413</v>
+        <v>30.22593697632603</v>
       </c>
       <c r="F97">
-        <v>30.03603427996972</v>
+        <v>30.21942730580595</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2314,19 +2314,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>29.45858240411409</v>
+        <v>30.16237766655093</v>
       </c>
       <c r="C98">
-        <v>30.07445105726351</v>
+        <v>28.93629321938064</v>
       </c>
       <c r="D98">
-        <v>29.32938780812171</v>
+        <v>30.06340292324811</v>
       </c>
       <c r="E98">
-        <v>29.30778679424988</v>
+        <v>30.09427881820221</v>
       </c>
       <c r="F98">
-        <v>29.92562036148214</v>
+        <v>30.08711449903209</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2334,19 +2334,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>29.33034682029992</v>
+        <v>30.03073565150934</v>
       </c>
       <c r="C99">
-        <v>29.94915846783977</v>
+        <v>28.82744148185089</v>
       </c>
       <c r="D99">
-        <v>29.20200054135462</v>
+        <v>29.93437603409175</v>
       </c>
       <c r="E99">
-        <v>29.18501555925769</v>
+        <v>29.9620307458439</v>
       </c>
       <c r="F99">
-        <v>29.81297218843756</v>
+        <v>29.95431681872173</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2354,19 +2354,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>29.20149111975952</v>
+        <v>29.89847416711711</v>
       </c>
       <c r="C100">
-        <v>29.82322346264275</v>
+        <v>28.71670503158276</v>
       </c>
       <c r="D100">
-        <v>29.07419838581133</v>
+        <v>29.80435199353082</v>
       </c>
       <c r="E100">
-        <v>29.06111447226703</v>
+        <v>29.8293526518845</v>
       </c>
       <c r="F100">
-        <v>29.69837221250159</v>
+        <v>29.82117617106531</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2374,19 +2374,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>29.07213666534155</v>
+        <v>29.76576447870581</v>
       </c>
       <c r="C101">
-        <v>29.69675605038455</v>
+        <v>28.60426278160796</v>
       </c>
       <c r="D101">
-        <v>28.94606497904998</v>
+        <v>29.67355383502262</v>
       </c>
       <c r="E101">
-        <v>28.93625265642137</v>
+        <v>29.69636704258943</v>
       </c>
       <c r="F101">
-        <v>29.58206573492224</v>
+        <v>29.68780042046842</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2394,19 +2394,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>28.94238289817576</v>
+        <v>29.63273750768973</v>
       </c>
       <c r="C102">
-        <v>29.56984992305404</v>
+        <v>28.49027659455801</v>
       </c>
       <c r="D102">
-        <v>28.81766958846464</v>
+        <v>29.54215908878371</v>
       </c>
       <c r="E102">
-        <v>28.81057522932743</v>
+        <v>29.56316821344585</v>
       </c>
       <c r="F102">
-        <v>29.46426750432923</v>
+        <v>29.55427187147556</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2414,19 +2414,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>28.81231171530809</v>
+        <v>29.49949351123993</v>
       </c>
       <c r="C103">
-        <v>29.44258400293193</v>
+        <v>28.37489293478813</v>
       </c>
       <c r="D103">
-        <v>28.68907212025165</v>
+        <v>29.41030921235336</v>
       </c>
       <c r="E103">
-        <v>28.68420680461795</v>
+        <v>29.42982905957744</v>
       </c>
       <c r="F103">
-        <v>29.34516358638805</v>
+        <v>29.42065355203704</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2434,19 +2434,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>28.68199096490615</v>
+        <v>29.36610957010107</v>
       </c>
       <c r="C104">
-        <v>29.31502498307491</v>
+        <v>28.25824437993217</v>
       </c>
       <c r="D104">
-        <v>28.56032194960268</v>
+        <v>29.27811715646341</v>
       </c>
       <c r="E104">
-        <v>28.55725479187872</v>
+        <v>29.29640610000634</v>
       </c>
       <c r="F104">
-        <v>29.22491587698179</v>
+        <v>29.28699388839708</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2454,19 +2454,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>28.55147701643461</v>
+        <v>29.2326450687693</v>
       </c>
       <c r="C105">
-        <v>29.18722947801584</v>
+        <v>28.14045098941991</v>
       </c>
       <c r="D105">
-        <v>28.43146019296027</v>
+        <v>29.1456732742114</v>
       </c>
       <c r="E105">
-        <v>28.42981185066266</v>
+        <v>29.16294343452159</v>
       </c>
       <c r="F105">
-        <v>29.10366600315692</v>
+        <v>29.15333023014794</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2474,19 +2474,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>28.42081678763299</v>
+        <v>29.09914593942733</v>
       </c>
       <c r="C106">
-        <v>29.05924564109919</v>
+        <v>28.02162153920144</v>
       </c>
       <c r="D106">
-        <v>28.30252107906115</v>
+        <v>29.01304997145655</v>
       </c>
       <c r="E106">
-        <v>28.30195764183474</v>
+        <v>29.02947571538271</v>
       </c>
       <c r="F106">
-        <v>28.98153826770694</v>
+        <v>29.01969161928622</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2494,19 +2494,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>28.29004945059211</v>
+        <v>28.9656477939637</v>
       </c>
       <c r="C107">
-        <v>28.93111468623322</v>
+        <v>27.90185463705954</v>
       </c>
       <c r="D107">
-        <v>28.17353358361417</v>
+        <v>28.88030542763403</v>
       </c>
       <c r="E107">
-        <v>28.17376174781884</v>
+        <v>28.8960301896459</v>
       </c>
       <c r="F107">
-        <v>28.85864170293741</v>
+        <v>28.88610067830829</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2514,19 +2514,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>28.15920784621302</v>
+        <v>28.83217834375777</v>
       </c>
       <c r="C108">
-        <v>28.80287203653892</v>
+        <v>27.78123972971796</v>
       </c>
       <c r="D108">
-        <v>28.04452248851273</v>
+        <v>28.74748646365812</v>
       </c>
       <c r="E108">
-        <v>28.04528363335741</v>
+        <v>28.76262827875881</v>
       </c>
       <c r="F108">
-        <v>28.73507193404725</v>
+        <v>28.75257499077939</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2534,19 +2534,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>28.02831963171335</v>
+        <v>28.69875918223275</v>
       </c>
       <c r="C109">
-        <v>28.67454814092157</v>
+        <v>27.6598580095441</v>
       </c>
       <c r="D109">
-        <v>27.91550898782891</v>
+        <v>28.61463081692922</v>
       </c>
       <c r="E109">
-        <v>27.91657476481091</v>
+        <v>28.62928692192886</v>
       </c>
       <c r="F109">
-        <v>28.61091301346596</v>
+        <v>28.61912825889792</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2554,19 +2554,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>27.89740819040937</v>
+        <v>28.56540720703893</v>
       </c>
       <c r="C110">
-        <v>28.54616921876879</v>
+        <v>27.53778322878869</v>
       </c>
       <c r="D110">
-        <v>27.78651091402422</v>
+        <v>28.48176901793716</v>
       </c>
       <c r="E110">
-        <v>27.7876798063004</v>
+        <v>28.49601962187947</v>
       </c>
       <c r="F110">
-        <v>28.48623889767819</v>
+        <v>28.48577124602769</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2574,19 +2574,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>27.76649335812176</v>
+        <v>28.43213573451996</v>
       </c>
       <c r="C111">
-        <v>28.41775790285184</v>
+        <v>27.41508241279476</v>
       </c>
       <c r="D111">
-        <v>27.65754331076361</v>
+        <v>28.34892586744119</v>
       </c>
       <c r="E111">
-        <v>27.65863736687007</v>
+        <v>28.36283718305382</v>
       </c>
       <c r="F111">
-        <v>28.36111512086134</v>
+        <v>28.35251245824283</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2594,19 +2594,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>27.6355920052643</v>
+        <v>28.29895526115214</v>
       </c>
       <c r="C112">
-        <v>28.28933373166842</v>
+        <v>27.29181654709762</v>
       </c>
       <c r="D112">
-        <v>27.52861901088588</v>
+        <v>28.21612155134704</v>
       </c>
       <c r="E112">
-        <v>27.52948099517913</v>
+        <v>28.22974825264441</v>
       </c>
       <c r="F112">
-        <v>28.23559942997717</v>
+        <v>28.21935862040939</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2614,19 +2614,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>27.50471851328827</v>
+        <v>28.16587403476873</v>
       </c>
       <c r="C113">
-        <v>28.16091366860848</v>
+        <v>27.16804112016669</v>
       </c>
       <c r="D113">
-        <v>27.39974898385957</v>
+        <v>28.08337244021828</v>
       </c>
       <c r="E113">
-        <v>27.40023998356086</v>
+        <v>28.09675974847709</v>
       </c>
       <c r="F113">
-        <v>28.10974379728575</v>
+        <v>28.08631504349736</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2634,19 +2634,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>27.3738851977074</v>
+        <v>28.03289854683813</v>
       </c>
       <c r="C114">
-        <v>28.03251248260045</v>
+        <v>27.04380678201992</v>
       </c>
       <c r="D114">
-        <v>27.27094256360237</v>
+        <v>27.95069183448162</v>
       </c>
       <c r="E114">
-        <v>27.27093984198824</v>
+        <v>27.96387724819341</v>
       </c>
       <c r="F114">
-        <v>27.98359372142638</v>
+        <v>27.95338590295698</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2654,19 +2654,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>27.24310264105038</v>
+        <v>27.90003394086463</v>
       </c>
       <c r="C115">
-        <v>27.90414305225462</v>
+        <v>26.91915969385389</v>
       </c>
       <c r="D115">
-        <v>27.14220793368519</v>
+        <v>27.81809060698242</v>
       </c>
       <c r="E115">
-        <v>27.14160272841671</v>
+        <v>27.83110523684249</v>
       </c>
       <c r="F115">
-        <v>27.85718951765557</v>
+        <v>27.82057453747226</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2674,19 +2674,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>27.11237996285154</v>
+        <v>27.76728431251456</v>
       </c>
       <c r="C116">
-        <v>27.7758166504534</v>
+        <v>26.79414194354715</v>
       </c>
       <c r="D116">
-        <v>27.01355192588024</v>
+        <v>27.68557767843921</v>
       </c>
       <c r="E116">
-        <v>27.01224803639155</v>
+        <v>27.69844741533892</v>
       </c>
       <c r="F116">
-        <v>27.7305670872793</v>
+        <v>27.68788361735118</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2694,19 +2694,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>26.98172504268209</v>
+        <v>27.63465292164021</v>
       </c>
       <c r="C117">
-        <v>27.647543125702</v>
+        <v>26.6687920204196</v>
       </c>
       <c r="D117">
-        <v>26.88498083466371</v>
+        <v>27.55316037164633</v>
       </c>
       <c r="E117">
-        <v>26.88289267161471</v>
+        <v>27.56590679051255</v>
       </c>
       <c r="F117">
-        <v>27.60375849497192</v>
+        <v>27.55531523841191</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2714,19 +2714,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>26.85114470673849</v>
+        <v>27.50214235551188</v>
       </c>
       <c r="C118">
-        <v>27.51933111506331</v>
+        <v>26.54314505646054</v>
       </c>
       <c r="D118">
-        <v>26.75649971053498</v>
+        <v>27.42084469485149</v>
       </c>
       <c r="E118">
-        <v>26.75355140153562</v>
+        <v>27.43348576564777</v>
       </c>
       <c r="F118">
-        <v>27.47679220508088</v>
+        <v>27.42287116842004</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2734,19 +2734,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>26.72064488482905</v>
+        <v>27.36975465785126</v>
       </c>
       <c r="C119">
-        <v>27.39118821585786</v>
+        <v>26.41723318759576</v>
       </c>
       <c r="D119">
-        <v>26.62811327431444</v>
+        <v>27.28863558084112</v>
       </c>
       <c r="E119">
-        <v>26.62423716925776</v>
+        <v>27.30118631209599</v>
       </c>
       <c r="F119">
-        <v>27.34969396587024</v>
+        <v>27.29055272833566</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2754,19 +2754,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>26.59023074256851</v>
+        <v>27.23749145771414</v>
       </c>
       <c r="C120">
-        <v>27.26312112217629</v>
+        <v>26.29108585078832</v>
       </c>
       <c r="D120">
-        <v>26.49982527247462</v>
+        <v>27.1565370832167</v>
       </c>
       <c r="E120">
-        <v>26.49496136457028</v>
+        <v>27.16901001561434</v>
       </c>
       <c r="F120">
-        <v>27.22248752701413</v>
+        <v>27.15836097650537</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2774,19 +2774,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>26.45990679327549</v>
+        <v>27.10535401941208</v>
       </c>
       <c r="C121">
-        <v>27.13513575534619</v>
+        <v>26.16473002925776</v>
       </c>
       <c r="D121">
-        <v>26.3716391163391</v>
+        <v>27.02455251826494</v>
       </c>
       <c r="E121">
-        <v>26.36573395777301</v>
+        <v>27.03695816093947</v>
       </c>
       <c r="F121">
-        <v>27.09519351869938</v>
+        <v>27.0262967519295</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2794,19 +2794,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>26.32967697832036</v>
+        <v>26.97334342093223</v>
       </c>
       <c r="C122">
-        <v>27.00723734891146</v>
+        <v>26.03819044968916</v>
       </c>
       <c r="D122">
-        <v>26.24355761400303</v>
+        <v>26.89268465706257</v>
       </c>
       <c r="E122">
-        <v>26.23656371245029</v>
+        <v>26.90503179590261</v>
       </c>
       <c r="F122">
-        <v>26.96783064125806</v>
+        <v>26.89436070421339</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2814,19 +2814,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>26.19954476666251</v>
+        <v>26.84146043496398</v>
       </c>
       <c r="C123">
-        <v>26.8794305382484</v>
+        <v>25.91148981718874</v>
       </c>
       <c r="D123">
-        <v>26.11558325854651</v>
+        <v>26.76093576406468</v>
       </c>
       <c r="E123">
-        <v>26.10745836925381</v>
+        <v>26.77323178975509</v>
       </c>
       <c r="F123">
-        <v>26.84041542562468</v>
+        <v>26.76255334486987</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2834,19 +2834,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>26.06951318196061</v>
+        <v>26.70970576585801</v>
       </c>
       <c r="C124">
-        <v>26.75171942335767</v>
+        <v>25.78464898591595</v>
       </c>
       <c r="D124">
-        <v>25.98771821776234</v>
+        <v>26.62930774214106</v>
       </c>
       <c r="E124">
-        <v>25.97842471357587</v>
+        <v>26.6415588433464</v>
       </c>
       <c r="F124">
-        <v>26.712962850416</v>
+        <v>26.63087508537587</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -2854,19 +2854,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>25.93958494767272</v>
+        <v>26.57807988400834</v>
       </c>
       <c r="C125">
-        <v>26.62410768593818</v>
+        <v>25.65768710569607</v>
       </c>
       <c r="D125">
-        <v>25.85996436789831</v>
+        <v>26.49780218657535</v>
       </c>
       <c r="E125">
-        <v>25.84946873274246</v>
+        <v>26.51001352008521</v>
       </c>
       <c r="F125">
-        <v>26.58548651116837</v>
+        <v>26.49932623838132</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -2874,19 +2874,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>25.80976241445262</v>
+        <v>26.44658318584607</v>
       </c>
       <c r="C126">
-        <v>26.4965985534402</v>
+        <v>25.53062179328113</v>
       </c>
       <c r="D126">
-        <v>25.73232343375685</v>
+        <v>26.36642033971511</v>
       </c>
       <c r="E126">
-        <v>25.72059572704583</v>
+        <v>26.37859627680755</v>
       </c>
       <c r="F126">
-        <v>26.45799879040447</v>
+        <v>26.36790703616224</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -2894,19 +2894,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>25.68004770907877</v>
+        <v>26.31521595060502</v>
       </c>
       <c r="C127">
-        <v>26.36919500258062</v>
+        <v>25.4034692729063</v>
       </c>
       <c r="D127">
-        <v>25.60479683084229</v>
+        <v>26.23516330492016</v>
       </c>
       <c r="E127">
-        <v>25.59181037173683</v>
+        <v>26.24730747091026</v>
       </c>
       <c r="F127">
-        <v>26.33051098374952</v>
+        <v>26.23661765387043</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2914,19 +2914,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>25.5504426824162</v>
+        <v>26.18397838645572</v>
       </c>
       <c r="C128">
-        <v>26.24189959314863</v>
+        <v>25.27624447855136</v>
       </c>
       <c r="D128">
-        <v>25.477385911327</v>
+        <v>26.10403190578907</v>
       </c>
       <c r="E128">
-        <v>25.46311680103652</v>
+        <v>26.1161473849779</v>
       </c>
       <c r="F128">
-        <v>26.20303325833862</v>
+        <v>26.10545820617306</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2934,19 +2934,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>25.42094898123301</v>
+        <v>26.05287063980851</v>
       </c>
       <c r="C129">
-        <v>26.11471473044881</v>
+        <v>25.14896117427734</v>
       </c>
       <c r="D129">
-        <v>25.35009175359533</v>
+        <v>25.9730268469479</v>
       </c>
       <c r="E129">
-        <v>25.33451868779089</v>
+        <v>25.98511623838538</v>
       </c>
       <c r="F129">
-        <v>26.07557486827854</v>
+        <v>25.974428767936</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2954,19 +2954,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>25.29156807346763</v>
+        <v>25.92189281269982</v>
       </c>
       <c r="C130">
-        <v>25.98764246869545</v>
+        <v>25.02163206925945</v>
       </c>
       <c r="D130">
-        <v>25.22291535880538</v>
+        <v>25.84214868960568</v>
       </c>
       <c r="E130">
-        <v>25.20601927923016</v>
+        <v>25.8542142013376</v>
       </c>
       <c r="F130">
-        <v>25.94814415003413</v>
+        <v>25.8435293801617</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -2974,19 +2974,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>25.16230125676568</v>
+        <v>25.79104497035844</v>
       </c>
       <c r="C131">
-        <v>25.86068472929365</v>
+        <v>24.89426888089881</v>
       </c>
       <c r="D131">
-        <v>25.09585756074556</v>
+        <v>25.71139789022646</v>
       </c>
       <c r="E131">
-        <v>25.07762145445025</v>
+        <v>25.72344139794796</v>
       </c>
       <c r="F131">
-        <v>25.82074871936333</v>
+        <v>25.71276005724504</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -2994,19 +2994,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>25.03314969572941</v>
+        <v>25.66032714401164</v>
       </c>
       <c r="C132">
-        <v>25.73384318187984</v>
+        <v>24.76688243138426</v>
       </c>
       <c r="D132">
-        <v>24.96891909406933</v>
+        <v>25.58077483183537</v>
       </c>
       <c r="E132">
-        <v>24.94932776154469</v>
+        <v>25.5927979149574</v>
       </c>
       <c r="F132">
-        <v>25.6933955145908</v>
+        <v>25.58212078912488</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3014,19 +3014,19 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>24.90411442897655</v>
+        <v>25.52973933650108</v>
       </c>
       <c r="C133">
-        <v>25.60711936337848</v>
+        <v>24.63948273023872</v>
       </c>
       <c r="D133">
-        <v>24.84210060252328</v>
+        <v>25.45027980294179</v>
       </c>
       <c r="E133">
-        <v>24.82114047257589</v>
+        <v>25.46228380877899</v>
       </c>
       <c r="F133">
-        <v>25.56609086618087</v>
+        <v>25.45161154864191</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3034,19 +3034,19 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>24.77519638481469</v>
+        <v>25.39928152701792</v>
       </c>
       <c r="C134">
-        <v>25.48051464192309</v>
+        <v>24.51207902570641</v>
       </c>
       <c r="D134">
-        <v>24.71540264783065</v>
+        <v>25.31991305307608</v>
       </c>
       <c r="E134">
-        <v>24.69306161297526</v>
+        <v>25.33189910722092</v>
       </c>
       <c r="F134">
-        <v>25.43884052530633</v>
+        <v>25.32123229056775</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3054,19 +3054,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>24.64639640005754</v>
+        <v>25.26895367644037</v>
       </c>
       <c r="C135">
-        <v>25.35403026809161</v>
+        <v>24.38467985813022</v>
       </c>
       <c r="D135">
-        <v>24.58882572023112</v>
+        <v>25.18967475370993</v>
       </c>
       <c r="E135">
-        <v>24.56509295759588</v>
+        <v>25.20164381504214</v>
       </c>
       <c r="F135">
-        <v>25.31164995468449</v>
+        <v>25.19098295610082</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3074,19 +3074,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>24.51771521605898</v>
+        <v>25.13875573126521</v>
       </c>
       <c r="C136">
-        <v>25.22766736551525</v>
+        <v>24.25729317719255</v>
       </c>
       <c r="D136">
-        <v>24.46237025906142</v>
+        <v>25.05956504300837</v>
       </c>
       <c r="E136">
-        <v>24.43723617033895</v>
+        <v>25.071517921607</v>
       </c>
       <c r="F136">
-        <v>25.18452372844447</v>
+        <v>25.06086347549246</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3094,19 +3094,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>24.38915350412062</v>
+        <v>25.00868762544714</v>
       </c>
       <c r="C137">
-        <v>25.10142696704217</v>
+        <v>24.12992628523889</v>
       </c>
       <c r="D137">
-        <v>24.3360366322396</v>
+        <v>24.92958401140662</v>
       </c>
       <c r="E137">
-        <v>24.30949261508866</v>
+        <v>24.94152139382941</v>
       </c>
       <c r="F137">
-        <v>25.05746656199829</v>
+        <v>24.93087376968096</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3114,19 +3114,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>24.26071186093108</v>
+        <v>24.87874928218703</v>
       </c>
       <c r="C138">
-        <v>24.97530999735115</v>
+        <v>24.00258602884156</v>
       </c>
       <c r="D138">
-        <v>24.20982517365789</v>
+        <v>24.79973171922416</v>
       </c>
       <c r="E138">
-        <v>24.18186364925209</v>
+        <v>24.81165419596141</v>
       </c>
       <c r="F138">
-        <v>24.93048263696002</v>
+        <v>24.80101375200068</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3134,19 +3134,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>24.13239082436048</v>
+        <v>24.74894061600442</v>
       </c>
       <c r="C139">
-        <v>24.84931731169121</v>
+        <v>23.87527871602823</v>
       </c>
       <c r="D139">
-        <v>24.08373615681628</v>
+        <v>24.6700082002891</v>
       </c>
       <c r="E139">
-        <v>24.05435035091635</v>
+        <v>24.68191626949175</v>
       </c>
       <c r="F139">
-        <v>24.8035754864171</v>
+        <v>24.67128332972787</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3154,19 +3154,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>24.0041908781162</v>
+        <v>24.61926153446833</v>
       </c>
       <c r="C140">
-        <v>24.72344967484453</v>
+        <v>23.74801020173628</v>
       </c>
       <c r="D140">
-        <v>23.95776982454213</v>
+        <v>24.54041346392572</v>
       </c>
       <c r="E140">
-        <v>23.9269537743957</v>
+        <v>24.55230755581218</v>
       </c>
       <c r="F140">
-        <v>24.67674890494853</v>
+        <v>24.54168240461468</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3174,19 +3174,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>23.87611245585355</v>
+        <v>24.48971193922822</v>
       </c>
       <c r="C141">
-        <v>24.59770779383711</v>
+        <v>23.62078596329077</v>
       </c>
       <c r="D141">
-        <v>23.8319263781116</v>
+        <v>24.41094750364947</v>
       </c>
       <c r="E141">
-        <v>23.79967481714907</v>
+        <v>24.42282798256213</v>
       </c>
       <c r="F141">
-        <v>24.55000589458422</v>
+        <v>24.41221087303262</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3194,19 +3194,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>23.74815595077105</v>
+        <v>24.36029172698344</v>
       </c>
       <c r="C142">
-        <v>24.47209230586436</v>
+        <v>23.49361101741047</v>
       </c>
       <c r="D142">
-        <v>23.70620598996478</v>
+        <v>24.28161029311558</v>
       </c>
       <c r="E142">
-        <v>23.67251427476</v>
+        <v>24.29347746991397</v>
       </c>
       <c r="F142">
-        <v>24.42334946252052</v>
+        <v>24.28286862960611</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3214,19 +3214,19 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>23.62032171459248</v>
+        <v>24.23100079042201</v>
       </c>
       <c r="C143">
-        <v>24.346603797844</v>
+        <v>23.36649009712383</v>
       </c>
       <c r="D143">
-        <v>23.58060880526629</v>
+        <v>24.15240179394266</v>
       </c>
       <c r="E143">
-        <v>23.54547287282357</v>
+        <v>24.16425593393378</v>
       </c>
       <c r="F143">
-        <v>24.29678236832908</v>
+        <v>24.15365556254147</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -3234,19 +3234,19 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>23.49261006584963</v>
+        <v>24.10183901888956</v>
       </c>
       <c r="C144">
-        <v>24.22124280434751</v>
+        <v>23.23942753739921</v>
       </c>
       <c r="D144">
-        <v>23.45513494429557</v>
+        <v>24.02332195392184</v>
       </c>
       <c r="E144">
-        <v>23.41855124444433</v>
+        <v>24.0351632818319</v>
       </c>
       <c r="F144">
-        <v>24.17030702904527</v>
+        <v>24.02457156173507</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -3254,19 +3254,19 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>23.36502129101287</v>
+        <v>23.97280629895656</v>
       </c>
       <c r="C145">
-        <v>24.0960098171742</v>
+        <v>23.11242741810386</v>
       </c>
       <c r="D145">
-        <v>23.3297845074612</v>
+        <v>23.89437071006247</v>
       </c>
       <c r="E145">
-        <v>23.29174996992025</v>
+        <v>23.90619941857842</v>
       </c>
       <c r="F145">
-        <v>24.04392576677747</v>
+        <v>23.89561651149762</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -3274,19 +3274,19 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>23.23755564792605</v>
+        <v>23.84390251492557</v>
       </c>
       <c r="C146">
-        <v>23.97090528704926</v>
+        <v>22.98549349933305</v>
       </c>
       <c r="D146">
-        <v>23.20455757398156</v>
+        <v>23.76554799091534</v>
       </c>
       <c r="E146">
-        <v>23.16506955161665</v>
+        <v>23.77736424375496</v>
       </c>
       <c r="F146">
-        <v>23.91764070211119</v>
+        <v>23.7667902958936</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -3294,19 +3294,19 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>23.11021337029331</v>
+        <v>23.71512754923748</v>
       </c>
       <c r="C147">
-        <v>23.84592962939666</v>
+        <v>22.85862931274358</v>
       </c>
       <c r="D147">
-        <v>23.07945420746067</v>
+        <v>23.63685371685148</v>
       </c>
       <c r="E147">
-        <v>23.03851046046177</v>
+        <v>23.64865765455551</v>
       </c>
       <c r="F147">
-        <v>23.79145380312643</v>
+        <v>23.63809279764913</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -3314,19 +3314,19 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>22.982994668208</v>
+        <v>23.58648128279683</v>
       </c>
       <c r="C148">
-        <v>23.72108322574025</v>
+        <v>22.73183812424005</v>
       </c>
       <c r="D148">
-        <v>22.95447445341061</v>
+        <v>23.50828780224801</v>
       </c>
       <c r="E148">
-        <v>22.9120730950871</v>
+        <v>23.52007954445796</v>
       </c>
       <c r="F148">
-        <v>23.66536690069717</v>
+        <v>23.50952389635285</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -3334,19 +3334,19 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>22.8558997322379</v>
+        <v>23.45796359524381</v>
       </c>
       <c r="C149">
-        <v>23.59636642857775</v>
+        <v>22.60512299660079</v>
       </c>
       <c r="D149">
-        <v>22.82961834471923</v>
+        <v>23.37985015589994</v>
       </c>
       <c r="E149">
-        <v>22.78575782864954</v>
+        <v>23.3916298059723</v>
       </c>
       <c r="F149">
-        <v>23.53938167702002</v>
+        <v>23.3810834723149</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -3354,19 +3354,19 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>22.72892873462317</v>
+        <v>23.32957436514166</v>
       </c>
       <c r="C150">
-        <v>23.47177956236241</v>
+        <v>22.47848677802311</v>
       </c>
       <c r="D150">
-        <v>22.70488589990504</v>
+        <v>23.25154068191768</v>
       </c>
       <c r="E150">
-        <v>22.65956498700965</v>
+        <v>23.2633083275894</v>
       </c>
       <c r="F150">
-        <v>23.41349974543944</v>
+        <v>23.25277140334652</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -3374,19 +3374,19 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>22.60208183146985</v>
+        <v>23.20131347008424</v>
       </c>
       <c r="C151">
-        <v>23.34732292743054</v>
+        <v>22.35193212066685</v>
       </c>
       <c r="D151">
-        <v>22.58027712685133</v>
+        <v>23.12335928061853</v>
       </c>
       <c r="E151">
-        <v>22.53349485551638</v>
+        <v>23.13511499794104</v>
       </c>
       <c r="F151">
-        <v>23.28772256423905</v>
+        <v>23.12458756727537</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -3394,19 +3394,19 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>22.47535916395049</v>
+        <v>23.07318078672494</v>
       </c>
       <c r="C152">
-        <v>23.22299680148191</v>
+        <v>22.22546151218799</v>
       </c>
       <c r="D152">
-        <v>22.45579202250776</v>
+        <v>22.99530584823622</v>
       </c>
       <c r="E152">
-        <v>22.40754769617046</v>
+        <v>23.00704970240037</v>
       </c>
       <c r="F152">
-        <v>23.16205149489466</v>
+        <v>22.99653184095745</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -3414,19 +3414,19 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>22.34876085987158</v>
+        <v>22.94517619077213</v>
       </c>
       <c r="C153">
-        <v>23.09880144200406</v>
+        <v>22.09907725379798</v>
       </c>
       <c r="D153">
-        <v>22.33143057527865</v>
+        <v>22.86738027849823</v>
       </c>
       <c r="E153">
-        <v>22.28172373179386</v>
+        <v>22.87911232570108</v>
       </c>
       <c r="F153">
-        <v>23.03648784589237</v>
+        <v>22.86860410091126</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -3434,19 +3434,19 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>22.22228703542658</v>
+        <v>22.81729955703032</v>
       </c>
       <c r="C154">
-        <v>22.97473708851519</v>
+        <v>21.97278151389841</v>
       </c>
       <c r="D154">
-        <v>22.20719276448781</v>
+        <v>22.73958246203421</v>
       </c>
       <c r="E154">
-        <v>22.15602316693886</v>
+        <v>22.75130275103246</v>
       </c>
       <c r="F154">
-        <v>22.91103276308258</v>
+        <v>22.74080422309656</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -3454,19 +3454,19 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>22.09593779630512</v>
+        <v>22.68955075954368</v>
       </c>
       <c r="C155">
-        <v>22.85080396346151</v>
+        <v>21.84657629708297</v>
       </c>
       <c r="D155">
-        <v>22.08307856301487</v>
+        <v>22.61191228734789</v>
       </c>
       <c r="E155">
-        <v>22.03044617683929</v>
+        <v>22.62362086033272</v>
       </c>
       <c r="F155">
-        <v>22.78568737019588</v>
+        <v>22.61313208334433</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -3474,19 +3474,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>21.96971323868931</v>
+        <v>22.56192967181812</v>
       </c>
       <c r="C156">
-        <v>22.72700227501195</v>
+        <v>21.72046349215852</v>
       </c>
       <c r="D156">
-        <v>21.95908793576796</v>
+        <v>22.48436964097027</v>
       </c>
       <c r="E156">
-        <v>21.9049929205913</v>
+        <v>22.49606653478295</v>
       </c>
       <c r="F156">
-        <v>22.6604526908072</v>
+        <v>22.48558755719329</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3494,19 +3494,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>21.84361345013645</v>
+        <v>22.43443616704871</v>
       </c>
       <c r="C157">
-        <v>22.6033322168469</v>
+        <v>21.59444484855177</v>
       </c>
       <c r="D157">
-        <v>21.83522084254089</v>
+        <v>22.35695440834343</v>
       </c>
       <c r="E157">
-        <v>21.77966353459349</v>
+        <v>22.36863965467434</v>
       </c>
       <c r="F157">
-        <v>22.53532967199748</v>
+        <v>22.35817051975565</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3514,19 +3514,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>21.71763851038338</v>
+        <v>22.30707011829774</v>
       </c>
       <c r="C158">
-        <v>22.47979397117781</v>
+        <v>21.46852201361611</v>
       </c>
       <c r="D158">
-        <v>21.71147723653367</v>
+        <v>22.22966647216121</v>
       </c>
       <c r="E158">
-        <v>21.65445814115759</v>
+        <v>22.24134009969415</v>
       </c>
       <c r="F158">
-        <v>22.4103192063753</v>
+        <v>22.23088084631814</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3534,19 +3534,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>21.59178849206151</v>
+        <v>22.17983139861158</v>
       </c>
       <c r="C159">
-        <v>22.35638770801557</v>
+        <v>21.34269651765795</v>
       </c>
       <c r="D159">
-        <v>21.58785706635685</v>
+        <v>22.10250571571053</v>
       </c>
       <c r="E159">
-        <v>21.52937684662897</v>
+        <v>22.11416774886965</v>
       </c>
       <c r="F159">
-        <v>22.28542212337865</v>
+        <v>22.10371841158225</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3554,19 +3554,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>21.46606346136478</v>
+        <v>22.05271988108981</v>
       </c>
       <c r="C160">
-        <v>22.23311358806006</v>
+        <v>21.21696979638989</v>
       </c>
       <c r="D160">
-        <v>21.46436027534659</v>
+        <v>21.97547202073147</v>
       </c>
       <c r="E160">
-        <v>21.40441974174047</v>
+        <v>21.98712248094636</v>
       </c>
       <c r="F160">
-        <v>22.16063920125909</v>
+        <v>21.97668309045673</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3574,19 +3574,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>21.34046347853335</v>
+        <v>21.92573543892231</v>
       </c>
       <c r="C161">
-        <v>22.10997176190725</v>
+        <v>21.09134319102341</v>
       </c>
       <c r="D161">
-        <v>21.34098680368939</v>
+        <v>21.84856526683809</v>
       </c>
       <c r="E161">
-        <v>21.27958690812292</v>
+        <v>21.86020417393545</v>
       </c>
       <c r="F161">
-        <v>22.0359711668064</v>
+        <v>21.84977475756657</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3594,19 +3594,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>21.21498859823757</v>
+        <v>21.79887794540938</v>
       </c>
       <c r="C162">
-        <v>21.98696237259538</v>
+        <v>20.96581795264646</v>
       </c>
       <c r="D162">
-        <v>21.21773658698443</v>
+        <v>21.72178533507691</v>
       </c>
       <c r="E162">
-        <v>21.15487841163699</v>
+        <v>21.73341270583647</v>
       </c>
       <c r="F162">
-        <v>21.91141869785405</v>
+        <v>21.72299328754568</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3614,19 +3614,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>21.08963886986727</v>
+        <v>21.67214727397202</v>
       </c>
       <c r="C163">
-        <v>21.86408555488872</v>
+        <v>20.84039525655531</v>
       </c>
       <c r="D163">
-        <v>21.09460955702494</v>
+        <v>21.59513210409488</v>
       </c>
       <c r="E163">
-        <v>21.03029431194996</v>
+        <v>21.60674795398311</v>
       </c>
       <c r="F163">
-        <v>21.78698244131033</v>
+        <v>21.59633855499425</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3634,19 +3634,19 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>20.96441433774963</v>
+        <v>21.54554329815711</v>
       </c>
       <c r="C164">
-        <v>21.74134143747736</v>
+        <v>20.71507619435126</v>
       </c>
       <c r="D164">
-        <v>20.97160564469075</v>
+        <v>21.46860545249449</v>
       </c>
       <c r="E164">
-        <v>20.90583465601646</v>
+        <v>21.48020979568649</v>
       </c>
       <c r="F164">
-        <v>21.66266298475161</v>
+        <v>21.46981043451612</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -3654,19 +3654,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>20.83931504127001</v>
+        <v>21.41906589164007</v>
       </c>
       <c r="C165">
-        <v>21.61873014228895</v>
+        <v>20.58986179436508</v>
       </c>
       <c r="D165">
-        <v>20.84872477581702</v>
+        <v>21.34220525890423</v>
       </c>
       <c r="E165">
-        <v>20.78149948483074</v>
+        <v>21.35379810787961</v>
       </c>
       <c r="F165">
-        <v>21.53846089481493</v>
+        <v>21.34340880072713</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3674,19 +3674,19 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>20.7143410149316</v>
+        <v>21.29271492822613</v>
       </c>
       <c r="C166">
-        <v>21.49625178643341</v>
+        <v>20.46475301052877</v>
       </c>
       <c r="D166">
-        <v>20.72596687387647</v>
+        <v>21.21593140055437</v>
       </c>
       <c r="E166">
-        <v>20.65728883054809</v>
+        <v>21.22751276734803</v>
       </c>
       <c r="F166">
-        <v>21.41437669957279</v>
+        <v>21.21713352828056</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -3694,19 +3694,19 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>20.58949228834759</v>
+        <v>21.16649028185103</v>
       </c>
       <c r="C167">
-        <v>21.37390648151881</v>
+        <v>20.33975074171627</v>
       </c>
       <c r="D167">
-        <v>20.60333186226588</v>
+        <v>21.08978375508614</v>
       </c>
       <c r="E167">
-        <v>20.53320271904878</v>
+        <v>21.10135365071917</v>
       </c>
       <c r="F167">
-        <v>21.2904108844874</v>
+        <v>21.09098449191152</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -3714,19 +3714,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>20.46476888616692</v>
+        <v>21.04039182658131</v>
       </c>
       <c r="C168">
-        <v>21.25169433536491</v>
+        <v>20.21485582188744</v>
       </c>
       <c r="D168">
-        <v>20.48081965946849</v>
+        <v>20.96376219960325</v>
       </c>
       <c r="E168">
-        <v>20.40924117035329</v>
+        <v>20.97532063449848</v>
       </c>
       <c r="F168">
-        <v>21.16656391665398</v>
+        <v>20.96496156633286</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3734,19 +3734,19 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>20.3401708279373</v>
+        <v>20.91441943661447</v>
       </c>
       <c r="C169">
-        <v>21.12961545141119</v>
+        <v>20.09006903615239</v>
       </c>
       <c r="D169">
-        <v>20.35843018303117</v>
+        <v>20.83786661093958</v>
       </c>
       <c r="E169">
-        <v>20.28540419845041</v>
+        <v>20.8494135951068</v>
       </c>
       <c r="F169">
-        <v>21.04283622696456</v>
+        <v>20.83906462641165</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -3754,19 +3754,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>20.21569812801616</v>
+        <v>20.78857298627905</v>
       </c>
       <c r="C170">
-        <v>21.00766993013906</v>
+        <v>19.96539111092435</v>
       </c>
       <c r="D170">
-        <v>20.23616334975081</v>
+        <v>20.71209686591896</v>
       </c>
       <c r="E170">
-        <v>20.1616918135524</v>
+        <v>20.72363240888606</v>
       </c>
       <c r="F170">
-        <v>20.91922822237343</v>
+        <v>20.71329354699451</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3774,19 +3774,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>20.09135079543765</v>
+        <v>20.66285235003468</v>
       </c>
       <c r="C171">
-        <v>20.88585786866056</v>
+        <v>19.84082272917017</v>
       </c>
       <c r="D171">
-        <v>20.11401907303637</v>
+        <v>20.58645284105776</v>
       </c>
       <c r="E171">
-        <v>20.03810402012124</v>
+        <v>20.59797695216441</v>
       </c>
       <c r="F171">
-        <v>20.79574028605341</v>
+        <v>20.5876482030606</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3794,19 +3794,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>19.96712883377409</v>
+        <v>20.53725740247204</v>
       </c>
       <c r="C172">
-        <v>20.7641793618425</v>
+        <v>19.71636453507436</v>
       </c>
       <c r="D172">
-        <v>19.99199726585003</v>
+        <v>20.46093441295903</v>
       </c>
       <c r="E172">
-        <v>19.9146408202383</v>
+        <v>20.47244710118637</v>
       </c>
       <c r="F172">
-        <v>20.67237277631069</v>
+        <v>20.46212846964484</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3814,19 +3814,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>19.84303224103435</v>
+        <v>20.41178801831294</v>
       </c>
       <c r="C173">
-        <v>20.64263450204935</v>
+        <v>19.59201712301195</v>
       </c>
       <c r="D173">
-        <v>19.87009783993227</v>
+        <v>20.33554145816349</v>
       </c>
       <c r="E173">
-        <v>19.79130221105131</v>
+        <v>20.34704273224573</v>
       </c>
       <c r="F173">
-        <v>20.54912603328054</v>
+        <v>20.33673422187009</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3834,19 +3834,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>19.71906100961202</v>
+        <v>20.28644407241027</v>
       </c>
       <c r="C174">
-        <v>20.52122338000294</v>
+        <v>19.46778103833808</v>
       </c>
       <c r="D174">
-        <v>19.74832070514748</v>
+        <v>20.21027385291664</v>
       </c>
       <c r="E174">
-        <v>19.66808818774398</v>
+        <v>20.22176372156895</v>
       </c>
       <c r="F174">
-        <v>20.42600037489348</v>
+        <v>20.21146533495675</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -3854,19 +3854,19 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>19.59521512627973</v>
+        <v>20.161225439748</v>
       </c>
       <c r="C175">
-        <v>20.39994608445484</v>
+        <v>19.34365681591686</v>
       </c>
       <c r="D175">
-        <v>19.62666577093819</v>
+        <v>20.0851314737732</v>
       </c>
       <c r="E175">
-        <v>19.54499874218822</v>
+        <v>20.09660994544558</v>
       </c>
       <c r="F175">
-        <v>20.3029961018649</v>
+        <v>20.08632168422613</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -3874,19 +3874,19 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>19.47149457223469</v>
+        <v>20.03613199544124</v>
       </c>
       <c r="C176">
-        <v>20.27880270351801</v>
+        <v>19.21964495113621</v>
       </c>
       <c r="D176">
-        <v>19.50513294572366</v>
+        <v>19.96011419706986</v>
       </c>
       <c r="E176">
-        <v>19.42203386390177</v>
+        <v>19.97158128014961</v>
       </c>
       <c r="F176">
-        <v>20.18011349965369</v>
+        <v>19.96130314510256</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3894,19 +3894,19 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>19.34789932320679</v>
+        <v>19.91116361473621</v>
       </c>
       <c r="C177">
-        <v>20.15779332425336</v>
+        <v>19.09574586746072</v>
       </c>
       <c r="D177">
-        <v>19.383722136608</v>
+        <v>19.83522189912411</v>
       </c>
       <c r="E177">
-        <v>19.29919354054057</v>
+        <v>19.846677602011</v>
       </c>
       <c r="F177">
-        <v>20.0573528328899</v>
+        <v>19.83640959311406</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -3914,19 +3914,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>19.22442934962555</v>
+        <v>19.78632017301027</v>
       </c>
       <c r="C178">
-        <v>20.03691803211808</v>
+        <v>18.97196000664091</v>
       </c>
       <c r="D178">
-        <v>19.262433250573</v>
+        <v>19.71045445640402</v>
       </c>
       <c r="E178">
-        <v>19.17647775762287</v>
+        <v>19.72189878739102</v>
       </c>
       <c r="F178">
-        <v>19.93471435644669</v>
+        <v>19.71164090391059</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3934,19 +3934,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>19.10108461684282</v>
+        <v>19.66160154577192</v>
       </c>
       <c r="C179">
-        <v>19.9161769137231</v>
+        <v>18.8482877713688</v>
       </c>
       <c r="D179">
-        <v>19.14126619381445</v>
+        <v>19.585811745253</v>
       </c>
       <c r="E179">
-        <v>19.05388649948003</v>
+        <v>19.59724471270974</v>
       </c>
       <c r="F179">
-        <v>19.81219830836882</v>
+        <v>19.5869969532357</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3954,19 +3954,19 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>18.97786508539922</v>
+        <v>19.53700760866085</v>
       </c>
       <c r="C180">
-        <v>19.79557005494746</v>
+        <v>18.72472951328971</v>
       </c>
       <c r="D180">
-        <v>19.02022087134992</v>
+        <v>19.46129364214647</v>
       </c>
       <c r="E180">
-        <v>18.93141974832085</v>
+        <v>19.47271525444455</v>
       </c>
       <c r="F180">
-        <v>19.68980491312818</v>
+        <v>19.46247761696486</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -3974,19 +3974,19 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>18.85477071133554</v>
+        <v>19.41253823744797</v>
       </c>
       <c r="C181">
-        <v>19.67509754045365</v>
+        <v>18.6012855726315</v>
       </c>
       <c r="D181">
-        <v>18.89929718842854</v>
+        <v>19.33690002358246</v>
       </c>
       <c r="E181">
-        <v>18.80907748631164</v>
+        <v>19.34831028914067</v>
       </c>
       <c r="F181">
-        <v>19.56753438512296</v>
+        <v>19.33808277107746</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -3994,19 +3994,19 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>18.73180144652934</v>
+        <v>19.28819330803539</v>
       </c>
       <c r="C182">
-        <v>19.55475945712304</v>
+        <v>18.4779562735286</v>
       </c>
       <c r="D182">
-        <v>18.77849504958699</v>
+        <v>19.21263076611659</v>
       </c>
       <c r="E182">
-        <v>18.68685969494768</v>
+        <v>19.2240296934201</v>
       </c>
       <c r="F182">
-        <v>19.44538692466426</v>
+        <v>19.21381229167197</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4014,19 +4014,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>18.60895723905022</v>
+        <v>19.16397269645653</v>
       </c>
       <c r="C183">
-        <v>19.43455589149167</v>
+        <v>18.3547419083515</v>
       </c>
       <c r="D183">
-        <v>18.65781435853012</v>
+        <v>19.08848574638911</v>
       </c>
       <c r="E183">
-        <v>18.56476635329501</v>
+        <v>19.0998733439745</v>
       </c>
       <c r="F183">
-        <v>19.32336272354605</v>
+        <v>19.08966605496735</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4034,19 +4034,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>18.48623803352619</v>
+        <v>19.03987627887611</v>
       </c>
       <c r="C184">
-        <v>19.31448692983306</v>
+        <v>18.23164274056965</v>
       </c>
       <c r="D184">
-        <v>18.53725501916982</v>
+        <v>18.96446484110177</v>
       </c>
       <c r="E184">
-        <v>18.44279744125182</v>
+        <v>18.97584111758966</v>
       </c>
       <c r="F184">
-        <v>19.20146196280537</v>
+        <v>18.96564393729973</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4054,19 +4054,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>18.36364377151242</v>
+        <v>18.91590393159022</v>
       </c>
       <c r="C185">
-        <v>19.19455266062671</v>
+        <v>18.10865902679125</v>
       </c>
       <c r="D185">
-        <v>18.4168169348889</v>
+        <v>18.84056792705693</v>
       </c>
       <c r="E185">
-        <v>18.32095293938347</v>
+        <v>18.8519328911256</v>
       </c>
       <c r="F185">
-        <v>19.07968481389467</v>
+        <v>18.84174581512835</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4074,19 +4074,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>18.24117439185333</v>
+        <v>18.79205553102636</v>
       </c>
       <c r="C186">
-        <v>19.07475317278377</v>
+        <v>17.98579100055348</v>
       </c>
       <c r="D186">
-        <v>18.29650000865123</v>
+        <v>18.71679488116087</v>
       </c>
       <c r="E186">
-        <v>18.1992328271705</v>
+        <v>18.72814854154443</v>
       </c>
       <c r="F186">
-        <v>18.958031440893</v>
+        <v>18.71797156503521</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4094,19 +4094,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>18.11882983103277</v>
+        <v>18.6683309537435</v>
       </c>
       <c r="C187">
-        <v>18.95508855604158</v>
+        <v>17.86303887041889</v>
       </c>
       <c r="D187">
-        <v>18.17630414346882</v>
+        <v>18.59314558036118</v>
       </c>
       <c r="E187">
-        <v>18.07763708193382</v>
+        <v>18.6044879458938</v>
       </c>
       <c r="F187">
-        <v>18.83650199817726</v>
+        <v>18.59432106372675</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4114,19 +4114,19 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>17.9966100235081</v>
+        <v>18.54473007643215</v>
       </c>
       <c r="C188">
-        <v>18.83555890208543</v>
+        <v>17.74040283690302</v>
       </c>
       <c r="D188">
-        <v>18.05622924207134</v>
+        <v>18.46961990176376</v>
       </c>
       <c r="E188">
-        <v>17.9561656846921</v>
+        <v>18.48095098132592</v>
       </c>
       <c r="F188">
-        <v>18.71509663434077</v>
+        <v>18.47079418803278</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4134,19 +4134,19 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>17.87451490202621</v>
+        <v>18.42125277591446</v>
       </c>
       <c r="C189">
-        <v>18.71616430387695</v>
+        <v>17.61788308321803</v>
       </c>
       <c r="D189">
-        <v>17.93627520703351</v>
+        <v>18.34621772254729</v>
       </c>
       <c r="E189">
-        <v>17.83481861592024</v>
+        <v>18.35753752508901</v>
       </c>
       <c r="F189">
-        <v>18.59381549051992</v>
+        <v>18.34739081491151</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4154,19 +4154,19 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>17.75254439791803</v>
+        <v>18.29789892914421</v>
       </c>
       <c r="C190">
-        <v>18.59690485597741</v>
+        <v>17.49547977277621</v>
       </c>
       <c r="D190">
-        <v>17.8164419409617</v>
+        <v>18.22293891997757</v>
       </c>
       <c r="E190">
-        <v>17.71359585379776</v>
+        <v>18.23424745453945</v>
       </c>
       <c r="F190">
-        <v>18.47265870065387</v>
+        <v>18.22411082144512</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4174,19 +4174,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>17.63069844136885</v>
+        <v>18.17466841320698</v>
       </c>
       <c r="C191">
-        <v>18.47778065504208</v>
+        <v>17.37319305801979</v>
       </c>
       <c r="D191">
-        <v>17.69672934633</v>
+        <v>18.09978337145776</v>
       </c>
       <c r="E191">
-        <v>17.59249737955413</v>
+        <v>18.11108064713681</v>
       </c>
       <c r="F191">
-        <v>18.35162639409872</v>
+        <v>18.10095408484375</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4194,19 +4194,19 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>17.50897696167012</v>
+        <v>18.05156110532021</v>
       </c>
       <c r="C192">
-        <v>18.35879179958572</v>
+        <v>17.2510230811685</v>
       </c>
       <c r="D192">
-        <v>17.5771373256099</v>
+        <v>17.97675095447541</v>
       </c>
       <c r="E192">
-        <v>17.4715231746651</v>
+        <v>17.98803698045153</v>
       </c>
       <c r="F192">
-        <v>18.23071869336204</v>
+        <v>17.97792048244532</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -4214,19 +4214,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>17.38737988744769</v>
+        <v>17.92857688283329</v>
       </c>
       <c r="C193">
-        <v>18.23993839021857</v>
+        <v>17.12896996876028</v>
       </c>
       <c r="D193">
-        <v>17.45766578139202</v>
+        <v>17.85384154664006</v>
       </c>
       <c r="E193">
-        <v>17.3506732207854</v>
+        <v>17.86511633216119</v>
       </c>
       <c r="F193">
-        <v>18.10993571661657</v>
+        <v>17.85500989171429</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -4234,19 +4234,19 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>17.26590714686357</v>
+        <v>17.80571562322767</v>
       </c>
       <c r="C194">
-        <v>18.12122053009081</v>
+        <v>17.00703383097053</v>
       </c>
       <c r="D194">
-        <v>17.33831461619624</v>
+        <v>17.73105502567414</v>
       </c>
       <c r="E194">
-        <v>17.22994750003914</v>
+        <v>17.74231858005624</v>
       </c>
       <c r="F194">
-        <v>17.98927757729971</v>
+        <v>17.73222219024503</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -4254,19 +4254,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>17.14455866781473</v>
+        <v>17.68297720411699</v>
       </c>
       <c r="C195">
-        <v>18.00263832460029</v>
+        <v>16.88521477509432</v>
       </c>
       <c r="D195">
-        <v>17.21908373267475</v>
+        <v>17.60839126941452</v>
       </c>
       <c r="E195">
-        <v>17.10934599624769</v>
+        <v>17.61964360204857</v>
       </c>
       <c r="F195">
-        <v>17.86874438388994</v>
+        <v>17.60955725575987</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -4274,19 +4274,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>17.02333437810537</v>
+        <v>17.56036150324706</v>
       </c>
       <c r="C196">
-        <v>17.88419188166997</v>
+        <v>16.76351289575188</v>
       </c>
       <c r="D196">
-        <v>17.09997303365852</v>
+        <v>17.48585015581915</v>
       </c>
       <c r="E196">
-        <v>16.98886869398772</v>
+        <v>17.4970912761613</v>
       </c>
       <c r="F196">
-        <v>17.7483362416539</v>
+        <v>17.48701496611112</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -4294,19 +4294,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>16.9022342055887</v>
+        <v>17.4378683984962</v>
       </c>
       <c r="C197">
-        <v>17.76588131217838</v>
+        <v>16.64192826962931</v>
       </c>
       <c r="D197">
-        <v>16.98098242198479</v>
+        <v>17.36343156296367</v>
       </c>
       <c r="E197">
-        <v>16.86851557869424</v>
+        <v>17.37466148052268</v>
       </c>
       <c r="F197">
-        <v>17.6280532516554</v>
+        <v>17.36459519928065</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -4314,19 +4314,19 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>16.78125807832217</v>
+        <v>17.31549776787522</v>
       </c>
       <c r="C198">
-        <v>17.64770672966865</v>
+        <v>16.52046097275227</v>
       </c>
       <c r="D198">
-        <v>16.86211180073369</v>
+        <v>17.24113536904634</v>
       </c>
       <c r="E198">
-        <v>16.74828663735928</v>
+        <v>17.252354093404</v>
       </c>
       <c r="F198">
-        <v>17.50789551186127</v>
+        <v>17.24229783338101</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -4334,19 +4334,19 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>16.66040592467828</v>
+        <v>17.19324948952759</v>
       </c>
       <c r="C199">
-        <v>17.52966825065155</v>
+        <v>16.399111069888</v>
       </c>
       <c r="D199">
-        <v>16.74336107318965</v>
+        <v>17.11896145239299</v>
       </c>
       <c r="E199">
-        <v>16.6281818582405</v>
+        <v>17.13016899319303</v>
       </c>
       <c r="F199">
-        <v>17.38786311740922</v>
+        <v>17.12012274665567</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -4354,19 +4354,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>16.53967767345257</v>
+        <v>17.07112344172974</v>
       </c>
       <c r="C200">
-        <v>17.41176599489618</v>
+        <v>16.27787861443823</v>
       </c>
       <c r="D200">
-        <v>16.62473014276186</v>
+        <v>16.99690969144221</v>
       </c>
       <c r="E200">
-        <v>16.50820123084538</v>
+        <v>17.00810605836689</v>
       </c>
       <c r="F200">
-        <v>17.26795616020942</v>
+        <v>16.9980698174783</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -4374,19 +4374,19 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>16.41907325397819</v>
+        <v>16.949119502891</v>
       </c>
       <c r="C201">
-        <v>17.29400008533934</v>
+        <v>16.15676365282044</v>
       </c>
       <c r="D201">
-        <v>16.50621891316646</v>
+        <v>16.87497996476891</v>
       </c>
       <c r="E201">
-        <v>16.38834474622742</v>
+        <v>16.88616516756287</v>
       </c>
       <c r="F201">
-        <v>17.14817473033774</v>
+        <v>16.87613892435441</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -4394,19 +4394,19 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>16.29859259622347</v>
+        <v>16.82723755155381</v>
       </c>
       <c r="C202">
-        <v>17.17637064831391</v>
+        <v>16.03576622540131</v>
       </c>
       <c r="D202">
-        <v>16.38782728836421</v>
+        <v>16.75317215106991</v>
       </c>
       <c r="E202">
-        <v>16.26861239722367</v>
+        <v>16.76434619953332</v>
       </c>
       <c r="F202">
-        <v>17.02851891532585</v>
+        <v>16.75432994592245</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -4414,19 +4414,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>16.1782356308732</v>
+        <v>16.70547746639403</v>
       </c>
       <c r="C203">
-        <v>17.05887781371695</v>
+        <v>15.91488636402811</v>
       </c>
       <c r="D203">
-        <v>16.26955517255712</v>
+        <v>16.63148612916374</v>
       </c>
       <c r="E203">
-        <v>16.14900417825609</v>
+        <v>16.64264903313853</v>
       </c>
       <c r="F203">
-        <v>16.90898880082124</v>
+        <v>16.63264276095235</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -4434,19 +4434,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>16.05800228940817</v>
+        <v>16.58383912622119</v>
       </c>
       <c r="C204">
-        <v>16.94152171511455</v>
+        <v>15.79412409222437</v>
       </c>
       <c r="D204">
-        <v>16.15140247029094</v>
+        <v>16.50992177800305</v>
       </c>
       <c r="E204">
-        <v>16.02952008512071</v>
+        <v>16.52107354737307</v>
       </c>
       <c r="F204">
-        <v>16.78958447107909</v>
+        <v>16.51107724834428</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -4454,19 +4454,19 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>15.93789250418072</v>
+        <v>16.46232240997848</v>
       </c>
       <c r="C205">
-        <v>16.82430248987941</v>
+        <v>15.67347942956004</v>
       </c>
       <c r="D205">
-        <v>16.03336908642475</v>
+        <v>16.38847897666474</v>
       </c>
       <c r="E205">
-        <v>15.91016011595666</v>
+        <v>16.39961962136258</v>
       </c>
       <c r="F205">
-        <v>16.67030600847128</v>
+        <v>16.38963328713452</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -4474,19 +4474,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>15.81790620848315</v>
+        <v>16.34092719674299</v>
       </c>
       <c r="C206">
-        <v>16.70722027932465</v>
+        <v>15.55295238895809</v>
       </c>
       <c r="D206">
-        <v>15.9154549261342</v>
+        <v>16.26715760435544</v>
       </c>
       <c r="E206">
-        <v>15.79092427069483</v>
+        <v>16.27828713435361</v>
       </c>
       <c r="F206">
-        <v>16.55115349460577</v>
+        <v>16.26831075649169</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -4494,19 +4494,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>15.69804333660683</v>
+        <v>16.21965336572605</v>
       </c>
       <c r="C207">
-        <v>16.59027522888534</v>
+        <v>15.4325429746806</v>
       </c>
       <c r="D207">
-        <v>15.79765989499443</v>
+        <v>16.14595754041217</v>
       </c>
       <c r="E207">
-        <v>15.67181255104366</v>
+        <v>16.157075965717</v>
       </c>
       <c r="F207">
-        <v>16.43212700991721</v>
+        <v>16.14710953571553</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -4514,19 +4514,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>15.57830382390752</v>
+        <v>16.09850079627344</v>
       </c>
       <c r="C208">
-        <v>16.47346748821677</v>
+        <v>15.31225118878156</v>
       </c>
       <c r="D208">
-        <v>15.67998389895434</v>
+        <v>16.02487866430189</v>
       </c>
       <c r="E208">
-        <v>15.5528249609331</v>
+        <v>16.03598599495776</v>
       </c>
       <c r="F208">
-        <v>16.31322663402117</v>
+        <v>16.02602950424159</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -4534,19 +4534,19 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>15.4586876068645</v>
+        <v>15.97746936786557</v>
       </c>
       <c r="C209">
-        <v>16.35679721133524</v>
+        <v>15.19207702743808</v>
       </c>
       <c r="D209">
-        <v>15.56242684434519</v>
+        <v>15.9039208556233</v>
       </c>
       <c r="E209">
-        <v>15.43396150650264</v>
+        <v>15.91501710170781</v>
       </c>
       <c r="F209">
-        <v>16.1944524462042</v>
+        <v>15.90507054163919</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -4554,19 +4554,19 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>15.33919462313432</v>
+        <v>15.85655896011788</v>
       </c>
       <c r="C210">
-        <v>16.24026455682716</v>
+        <v>15.07202048022682</v>
       </c>
       <c r="D210">
-        <v>15.44498863795262</v>
+        <v>15.78308399410672</v>
       </c>
       <c r="E210">
-        <v>15.31522219611148</v>
+        <v>15.79416916572759</v>
       </c>
       <c r="F210">
-        <v>16.07580452512316</v>
+        <v>15.7842325276117</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -4574,19 +4574,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>15.21982481160516</v>
+        <v>15.73576945278082</v>
       </c>
       <c r="C211">
-        <v>16.1238696879182</v>
+        <v>14.95208153253512</v>
       </c>
       <c r="D211">
-        <v>15.32766918699456</v>
+        <v>15.66236795961481</v>
       </c>
       <c r="E211">
-        <v>15.19660704046809</v>
+        <v>15.6734420669098</v>
       </c>
       <c r="F211">
-        <v>15.95728294954398</v>
+        <v>15.66351534199715</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -4594,19 +4594,19 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>15.10057811244986</v>
+        <v>15.61510072574051</v>
       </c>
       <c r="C212">
-        <v>16.00761277263141</v>
+        <v>14.83226016650127</v>
       </c>
       <c r="D212">
-        <v>15.21046839914189</v>
+        <v>15.54177263214431</v>
       </c>
       <c r="E212">
-        <v>15.07811605268783</v>
+        <v>15.5528356852782</v>
       </c>
       <c r="F212">
-        <v>15.83888779818639</v>
+        <v>15.54291886476872</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -4614,19 +4614,19 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>14.98145446717854</v>
+        <v>15.4945526590188</v>
       </c>
       <c r="C213">
-        <v>15.89149398405509</v>
+        <v>14.71255635910909</v>
       </c>
       <c r="D213">
-        <v>15.09338618256506</v>
+        <v>15.4212978918239</v>
       </c>
       <c r="E213">
-        <v>14.95974924839898</v>
+        <v>15.43234990098641</v>
       </c>
       <c r="F213">
-        <v>15.72061914992714</v>
+        <v>15.42244297603501</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -4634,19 +4634,19 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>14.86245381868781</v>
+        <v>15.37412513277369</v>
       </c>
       <c r="C214">
-        <v>15.77551350033291</v>
+        <v>14.59297008191778</v>
       </c>
       <c r="D214">
-        <v>14.97642244593242</v>
+        <v>15.3009436189178</v>
       </c>
       <c r="E214">
-        <v>14.84150664603585</v>
+        <v>15.31198459432255</v>
       </c>
       <c r="F214">
-        <v>15.60247708423815</v>
+        <v>15.30208755604139</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -4654,19 +4654,19 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>14.74357611131347</v>
+        <v>15.25381802729975</v>
       </c>
       <c r="C215">
-        <v>15.65967150486867</v>
+        <v>14.47350130473886</v>
       </c>
       <c r="D215">
-        <v>14.85957709843495</v>
+        <v>15.18070969382475</v>
       </c>
       <c r="E215">
-        <v>14.72338826656268</v>
+        <v>15.19173964570823</v>
       </c>
       <c r="F215">
-        <v>15.48446168100791</v>
+        <v>15.18185248516826</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -4674,19 +4674,19 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>14.62482129088138</v>
+        <v>15.13363122302836</v>
       </c>
       <c r="C216">
-        <v>15.54396818667713</v>
+        <v>14.354149993219</v>
       </c>
       <c r="D216">
-        <v>14.74285004980967</v>
+        <v>15.06059599707772</v>
       </c>
       <c r="E216">
-        <v>14.60539413378237</v>
+        <v>15.07161493569705</v>
       </c>
       <c r="F216">
-        <v>15.36657302104588</v>
+        <v>15.06173764393294</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -4694,19 +4694,19 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>14.50618930475874</v>
+        <v>15.01356460052812</v>
       </c>
       <c r="C217">
-        <v>15.42840374025012</v>
+        <v>14.23491610786404</v>
       </c>
       <c r="D217">
-        <v>14.6262412103619</v>
+        <v>14.94060240934646</v>
       </c>
       <c r="E217">
-        <v>14.48752427449831</v>
+        <v>14.9516103449764</v>
       </c>
       <c r="F217">
-        <v>15.24881118606032</v>
+        <v>14.94174291299075</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -4714,19 +4714,19 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>14.38768010190626</v>
+        <v>14.89361804050528</v>
       </c>
       <c r="C218">
-        <v>15.31297836584916</v>
+        <v>14.11579960770615</v>
       </c>
       <c r="D218">
-        <v>14.5097504909839</v>
+        <v>14.82072881143667</v>
       </c>
       <c r="E218">
-        <v>14.36977871858219</v>
+        <v>14.83172575437087</v>
       </c>
       <c r="F218">
-        <v>15.13117625877345</v>
+        <v>14.82186817313396</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -4734,19 +4734,19 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>14.26929363293097</v>
+        <v>14.77379142380403</v>
       </c>
       <c r="C219">
-        <v>15.19769226992456</v>
+        <v>13.99680044821636</v>
       </c>
       <c r="D219">
-        <v>14.39337780317036</v>
+        <v>14.70097508429087</v>
       </c>
       <c r="E219">
-        <v>14.25215749887527</v>
+        <v>14.71196104483951</v>
       </c>
       <c r="F219">
-        <v>15.01366832343847</v>
+        <v>14.70211330529242</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -4754,19 +4754,19 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>14.15102985013977</v>
+        <v>14.65408463140708</v>
       </c>
       <c r="C220">
-        <v>15.08254566485081</v>
+        <v>13.87791858127517</v>
       </c>
       <c r="D220">
-        <v>14.27712305905577</v>
+        <v>14.58134110898905</v>
       </c>
       <c r="E220">
-        <v>14.1346606514903</v>
+        <v>14.59231609747584</v>
       </c>
       <c r="F220">
-        <v>14.89628746579889</v>
+        <v>14.58247819053494</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -4774,19 +4774,19 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>14.03288870759581</v>
+        <v>14.534497544436</v>
       </c>
       <c r="C221">
-        <v>14.96753876933574</v>
+        <v>13.7591539560627</v>
       </c>
       <c r="D221">
-        <v>14.1609861714233</v>
+        <v>14.46182676675012</v>
       </c>
       <c r="E221">
-        <v>14.01728821611204</v>
+        <v>14.472790793512</v>
       </c>
       <c r="F221">
-        <v>14.77903377303704</v>
+        <v>14.46296271006999</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -4794,19 +4794,19 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>13.91487016117345</v>
+        <v>14.4150300441518</v>
       </c>
       <c r="C222">
-        <v>14.8526718088802</v>
+        <v>13.64050651963812</v>
       </c>
       <c r="D222">
-        <v>14.04496705372371</v>
+        <v>14.34243193893062</v>
       </c>
       <c r="E222">
-        <v>13.90004023559341</v>
+        <v>14.35338501431672</v>
       </c>
       <c r="F222">
-        <v>14.66190733409862</v>
+        <v>14.34356674524411</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -4814,19 +4814,19 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>13.7969741686171</v>
+        <v>14.29568201195539</v>
       </c>
       <c r="C223">
-        <v>14.73794501539953</v>
+        <v>13.52197621615121</v>
       </c>
       <c r="D223">
-        <v>13.92906562012311</v>
+        <v>14.22315650702646</v>
       </c>
       <c r="E223">
-        <v>13.78291675640726</v>
+        <v>14.23409864139728</v>
       </c>
       <c r="F223">
-        <v>14.54490824034266</v>
+        <v>14.22429017754405</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -4834,19 +4834,19 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>13.67920068960035</v>
+        <v>14.17645332938808</v>
       </c>
       <c r="C224">
-        <v>14.62335862776157</v>
+        <v>13.40356298666652</v>
       </c>
       <c r="D224">
-        <v>13.81328178549734</v>
+        <v>14.10400035267323</v>
       </c>
       <c r="E224">
-        <v>13.66591782890309</v>
+        <v>14.11493155639895</v>
       </c>
       <c r="F224">
-        <v>14.42803658522014</v>
+        <v>14.1051328885991</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -4854,19 +4854,19 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>13.56154968578824</v>
+        <v>14.05734387813222</v>
       </c>
       <c r="C225">
-        <v>14.50891289225159</v>
+        <v>13.28526677095065</v>
       </c>
       <c r="D225">
-        <v>13.69761546546232</v>
+        <v>13.98496335764986</v>
       </c>
       <c r="E225">
-        <v>13.54904350719272</v>
+        <v>13.99588364110634</v>
       </c>
       <c r="F225">
-        <v>14.31129246411099</v>
+        <v>13.98609476017728</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -4874,19 +4874,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>13.4440211209016</v>
+        <v>13.93835354001167</v>
       </c>
       <c r="C226">
-        <v>14.39460806213972</v>
+        <v>13.16708750638134</v>
       </c>
       <c r="D226">
-        <v>13.58206657643373</v>
+        <v>13.86604540387287</v>
       </c>
       <c r="E226">
-        <v>13.43229384915554</v>
+        <v>13.87695477744519</v>
       </c>
       <c r="F226">
-        <v>14.19467597507175</v>
+        <v>13.86717567418875</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4894,19 +4894,19 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>13.32661496078113</v>
+        <v>13.81948219699246</v>
       </c>
       <c r="C227">
-        <v>14.28044439829964</v>
+        <v>13.04902512725559</v>
       </c>
       <c r="D227">
-        <v>13.46663503559651</v>
+        <v>13.74724637340143</v>
       </c>
       <c r="E227">
-        <v>13.31566891684749</v>
+        <v>13.75814484748188</v>
       </c>
       <c r="F227">
-        <v>14.07818721911686</v>
+        <v>13.74837551268736</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -4914,19 +4914,19 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>13.2093311734577</v>
+        <v>13.70072973118349</v>
       </c>
       <c r="C228">
-        <v>14.166422169711</v>
+        <v>12.93107956695678</v>
       </c>
       <c r="D228">
-        <v>13.35132076095956</v>
+        <v>13.62856614843696</v>
       </c>
       <c r="E228">
-        <v>13.19916877689973</v>
+        <v>13.6394537334235</v>
       </c>
       <c r="F228">
-        <v>13.96182630000345</v>
+        <v>13.62969415786977</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -4934,19 +4934,19 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>13.09216972922328</v>
+        <v>13.58209602483705</v>
       </c>
       <c r="C229">
-        <v>14.05254165295738</v>
+        <v>12.81325075677843</v>
       </c>
       <c r="D229">
-        <v>13.23612367142021</v>
+        <v>13.51000461132944</v>
       </c>
       <c r="E229">
-        <v>13.08279349979736</v>
+        <v>13.52088131762023</v>
       </c>
       <c r="F229">
-        <v>13.84559332428215</v>
+        <v>13.51113149207486</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -4954,19 +4954,19 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>12.97513060070407</v>
+        <v>13.4635809603497</v>
       </c>
       <c r="C230">
-        <v>13.93880313294353</v>
+        <v>12.69553862581342</v>
       </c>
       <c r="D230">
-        <v>13.12104368671264</v>
+        <v>13.39156164456627</v>
       </c>
       <c r="E230">
-        <v>12.96654316062635</v>
+        <v>13.40242748256663</v>
       </c>
       <c r="F230">
-        <v>13.72948840188292</v>
+        <v>13.3926873977868</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -4974,19 +4974,19 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>12.85821376293604</v>
+        <v>13.34518442026279</v>
       </c>
       <c r="C231">
-        <v>13.82520690343152</v>
+        <v>12.57794310146988</v>
       </c>
       <c r="D231">
-        <v>13.00608072748834</v>
+        <v>13.27323713078139</v>
       </c>
       <c r="E231">
-        <v>12.85041783959136</v>
+        <v>13.28409211089945</v>
       </c>
       <c r="F231">
-        <v>13.61351164611839</v>
+        <v>13.27436175763739</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -4994,19 +4994,19 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>12.74141919344786</v>
+        <v>13.22690628726353</v>
       </c>
       <c r="C232">
-        <v>13.7117532664684</v>
+        <v>12.46046410994543</v>
       </c>
       <c r="D232">
-        <v>12.89123471537804</v>
+        <v>13.15503095275404</v>
       </c>
       <c r="E232">
-        <v>12.73441762137534</v>
+        <v>13.16587508540072</v>
       </c>
       <c r="F232">
-        <v>13.49766317380675</v>
+        <v>13.15615445440094</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5014,19 +5014,19 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>12.62474687234894</v>
+        <v>13.10874644418558</v>
       </c>
       <c r="C233">
-        <v>13.59844253321583</v>
+        <v>12.34310157566886</v>
       </c>
       <c r="D233">
-        <v>12.77650557293178</v>
+        <v>13.03694299341735</v>
       </c>
       <c r="E233">
-        <v>12.61854259553431</v>
+        <v>13.04777628900059</v>
       </c>
       <c r="F233">
-        <v>13.38194310585192</v>
+        <v>13.03806537099922</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5034,19 +5034,19 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>12.5081967823908</v>
+        <v>12.99070477400994</v>
       </c>
       <c r="C234">
-        <v>13.48527502451138</v>
+        <v>12.22585542119466</v>
       </c>
       <c r="D234">
-        <v>12.661893223718</v>
+        <v>12.91897313584273</v>
       </c>
       <c r="E234">
-        <v>12.50279285701046</v>
+        <v>12.92979560477322</v>
       </c>
       <c r="F234">
-        <v>13.26635156671763</v>
+        <v>12.92009439050526</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5054,19 +5054,19 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>12.39176890910976</v>
+        <v>12.87278115986587</v>
       </c>
       <c r="C235">
-        <v>13.37225107023433</v>
+        <v>12.10872556826349</v>
       </c>
       <c r="D235">
-        <v>12.54739759238197</v>
+        <v>12.80112126325242</v>
       </c>
       <c r="E235">
-        <v>12.38716850644313</v>
+        <v>12.81193291594091</v>
       </c>
       <c r="F235">
-        <v>13.15088868506868</v>
+        <v>12.80224139613745</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5074,19 +5074,19 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>12.27546324083398</v>
+        <v>12.75497548503184</v>
       </c>
       <c r="C236">
-        <v>13.25937101025765</v>
+        <v>11.99171193716539</v>
       </c>
       <c r="D236">
-        <v>12.43301860458263</v>
+        <v>12.68338725901748</v>
       </c>
       <c r="E236">
-        <v>12.2716696493649</v>
+        <v>12.69418810587678</v>
       </c>
       <c r="F236">
-        <v>13.03555459391828</v>
+        <v>12.68450627126368</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5094,19 +5094,19 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>12.15927976888669</v>
+        <v>12.63728763293649</v>
       </c>
       <c r="C237">
-        <v>13.14663519502563</v>
+        <v>11.87481444647231</v>
       </c>
       <c r="D237">
-        <v>12.31875618711173</v>
+        <v>12.56577100666875</v>
       </c>
       <c r="E237">
-        <v>12.15629639714736</v>
+        <v>12.57656105810247</v>
       </c>
       <c r="F237">
-        <v>12.92034943154465</v>
+        <v>12.56688889940433</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5114,19 +5114,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>12.04321848759029</v>
+        <v>12.5197174871598</v>
       </c>
       <c r="C238">
-        <v>13.03404398486696</v>
+        <v>11.7580330140353</v>
       </c>
       <c r="D238">
-        <v>12.20461026794274</v>
+        <v>12.44827238987696</v>
       </c>
       <c r="E238">
-        <v>12.04104886794729</v>
+        <v>12.45905165628935</v>
       </c>
       <c r="F238">
-        <v>12.80527334007774</v>
+        <v>12.44938916423268</v>
       </c>
     </row>
   </sheetData>
